--- a/Modelo/tablas_pits_diccionario_datos.xlsx
+++ b/Modelo/tablas_pits_diccionario_datos.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="0" windowWidth="12495" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="AREACLIENTE" sheetId="1" r:id="rId1"/>
+    <sheet name="PITS" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AREACLIENTE!$A$1:$I$576</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$F$479</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PITS!$A$1:$I$576</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1808,10 +1808,10 @@
   <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="15"/>

--- a/Modelo/tablas_pits_diccionario_datos.xlsx
+++ b/Modelo/tablas_pits_diccionario_datos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="462">
   <si>
     <t>Columna</t>
   </si>
@@ -1472,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,9 +1490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1808,20 +1805,20 @@
   <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="N260" sqref="N260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.28515625" style="7"/>
@@ -1857,7 +1854,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1880,7 +1877,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1898,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1919,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1943,7 +1940,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1964,7 +1961,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1985,7 +1982,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2003,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2024,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2045,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2069,7 +2066,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2087,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +2108,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2132,7 +2129,7 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2148,7 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +2169,7 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2191,7 +2188,7 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
@@ -2212,7 +2209,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
@@ -2233,7 +2230,7 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
@@ -2254,7 +2251,7 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -2275,7 +2272,7 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>350</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2298,7 +2295,7 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2319,7 +2316,7 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2340,7 +2337,7 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2361,7 +2358,7 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
@@ -2382,7 +2379,7 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
         <v>40</v>
       </c>
@@ -2403,7 +2400,7 @@
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2424,7 +2421,7 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
@@ -2445,7 +2442,7 @@
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2463,7 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2487,7 +2484,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
@@ -2508,7 +2505,7 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
@@ -2529,7 +2526,7 @@
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2550,7 +2547,7 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2568,7 @@
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -2592,7 +2589,7 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -2613,7 +2610,7 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="5" t="s">
         <v>18</v>
       </c>
@@ -2634,7 +2631,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -2653,7 +2650,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="14"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="5" t="s">
         <v>23</v>
       </c>
@@ -2672,7 +2669,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="5" t="s">
         <v>22</v>
       </c>
@@ -2693,7 +2690,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="5" t="s">
         <v>44</v>
       </c>
@@ -2714,7 +2711,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
@@ -2735,7 +2732,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="5" t="s">
         <v>47</v>
       </c>
@@ -2756,7 +2753,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="14"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="5" t="s">
         <v>48</v>
       </c>
@@ -2777,7 +2774,7 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="5" t="s">
         <v>49</v>
       </c>
@@ -2798,7 +2795,7 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="14"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
@@ -2819,7 +2816,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="14"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="5" t="s">
         <v>17</v>
       </c>
@@ -2840,7 +2837,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="14"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="5" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +2856,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="14"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="5" t="s">
         <v>53</v>
       </c>
@@ -2878,7 +2875,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="14"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="5" t="s">
         <v>54</v>
       </c>
@@ -2899,7 +2896,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="14"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
@@ -2918,7 +2915,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="14"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="5" t="s">
         <v>57</v>
       </c>
@@ -2939,7 +2936,7 @@
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="14"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
@@ -2960,7 +2957,7 @@
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="14"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="5" t="s">
         <v>59</v>
       </c>
@@ -2981,7 +2978,7 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="14"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="5" t="s">
         <v>60</v>
       </c>
@@ -3002,7 +2999,7 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="14"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
@@ -3023,7 +3020,7 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="14"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="5" t="s">
         <v>62</v>
       </c>
@@ -3044,7 +3041,7 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="14"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="5" t="s">
         <v>63</v>
       </c>
@@ -3065,7 +3062,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="5" t="s">
         <v>64</v>
       </c>
@@ -3086,7 +3083,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="5" t="s">
         <v>65</v>
       </c>
@@ -3107,7 +3104,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="14"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="5" t="s">
         <v>24</v>
       </c>
@@ -3128,7 +3125,7 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3144,12 +3141,14 @@
         <v>3</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="5" t="s">
         <v>68</v>
       </c>
@@ -3163,12 +3162,14 @@
         <v>6</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="5" t="s">
         <v>69</v>
       </c>
@@ -3180,12 +3181,14 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
@@ -3197,12 +3200,14 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="14"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
@@ -3216,12 +3221,14 @@
         <v>6</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="14"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="5" t="s">
         <v>17</v>
       </c>
@@ -3235,12 +3242,14 @@
         <v>100</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="5" t="s">
         <v>72</v>
       </c>
@@ -3254,12 +3263,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="14"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="5" t="s">
         <v>73</v>
       </c>
@@ -3273,12 +3284,14 @@
         <v>2</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="14"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="5" t="s">
         <v>74</v>
       </c>
@@ -3292,12 +3305,14 @@
         <v>2</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="14"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="5" t="s">
         <v>75</v>
       </c>
@@ -3311,12 +3326,14 @@
         <v>6</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="14"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="5" t="s">
         <v>76</v>
       </c>
@@ -3328,12 +3345,14 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="5" t="s">
         <v>77</v>
       </c>
@@ -3347,12 +3366,14 @@
         <v>6</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="14"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="5" t="s">
         <v>78</v>
       </c>
@@ -3364,12 +3385,14 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="14"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="5" t="s">
         <v>79</v>
       </c>
@@ -3383,12 +3406,14 @@
         <v>2</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="14"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="5" t="s">
         <v>80</v>
       </c>
@@ -3402,12 +3427,14 @@
         <v>8</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="14"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="5" t="s">
         <v>81</v>
       </c>
@@ -3421,12 +3448,14 @@
         <v>6</v>
       </c>
       <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="14"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="5" t="s">
         <v>82</v>
       </c>
@@ -3440,12 +3469,14 @@
         <v>6</v>
       </c>
       <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="5" t="s">
         <v>83</v>
       </c>
@@ -3457,12 +3488,14 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
+      <c r="G80" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="5" t="s">
         <v>84</v>
       </c>
@@ -3476,12 +3509,14 @@
         <v>3</v>
       </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="14"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="5" t="s">
         <v>85</v>
       </c>
@@ -3495,12 +3530,14 @@
         <v>3</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="5" t="s">
         <v>86</v>
       </c>
@@ -3514,12 +3551,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="14"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="5" t="s">
         <v>87</v>
       </c>
@@ -3531,12 +3570,14 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="14"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="5" t="s">
         <v>88</v>
       </c>
@@ -3550,12 +3591,14 @@
       <c r="F85" s="5">
         <v>16</v>
       </c>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="14"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="5" t="s">
         <v>89</v>
       </c>
@@ -3569,12 +3612,14 @@
         <v>1</v>
       </c>
       <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="14"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="5" t="s">
         <v>90</v>
       </c>
@@ -3586,12 +3631,14 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="14"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="5" t="s">
         <v>91</v>
       </c>
@@ -3603,12 +3650,14 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="14"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -3622,12 +3671,14 @@
         <v>6</v>
       </c>
       <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="14"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -3639,12 +3690,14 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="14"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="5" t="s">
         <v>93</v>
       </c>
@@ -3658,12 +3711,14 @@
         <v>3</v>
       </c>
       <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="14"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="5" t="s">
         <v>94</v>
       </c>
@@ -3677,12 +3732,14 @@
         <v>20</v>
       </c>
       <c r="F92" s="5"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="14"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="5" t="s">
         <v>95</v>
       </c>
@@ -3696,12 +3753,14 @@
         <v>6</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="14"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="5" t="s">
         <v>96</v>
       </c>
@@ -3715,12 +3774,14 @@
         <v>3</v>
       </c>
       <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="14"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="5" t="s">
         <v>97</v>
       </c>
@@ -3734,12 +3795,14 @@
         <v>30</v>
       </c>
       <c r="F95" s="5"/>
-      <c r="G95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="14"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="5" t="s">
         <v>98</v>
       </c>
@@ -3753,12 +3816,14 @@
         <v>50</v>
       </c>
       <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="14"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="5" t="s">
         <v>99</v>
       </c>
@@ -3772,12 +3837,14 @@
       <c r="F97" s="5">
         <v>6</v>
       </c>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="14"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="5" t="s">
         <v>100</v>
       </c>
@@ -3791,12 +3858,14 @@
       <c r="F98" s="5">
         <v>32</v>
       </c>
-      <c r="G98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="14"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="5" t="s">
         <v>102</v>
       </c>
@@ -3810,12 +3879,14 @@
       <c r="F99" s="5">
         <v>32</v>
       </c>
-      <c r="G99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="14"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="5" t="s">
         <v>103</v>
       </c>
@@ -3829,12 +3900,14 @@
       <c r="F100" s="5">
         <v>32</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="14"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="5" t="s">
         <v>104</v>
       </c>
@@ -3848,12 +3921,14 @@
       <c r="F101" s="5">
         <v>32</v>
       </c>
-      <c r="G101" s="6"/>
+      <c r="G101" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="14"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="5" t="s">
         <v>105</v>
       </c>
@@ -3867,12 +3942,14 @@
       <c r="F102" s="5">
         <v>32</v>
       </c>
-      <c r="G102" s="6"/>
+      <c r="G102" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="14"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="5" t="s">
         <v>106</v>
       </c>
@@ -3886,12 +3963,14 @@
       <c r="F103" s="5">
         <v>32</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="14"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="5" t="s">
         <v>107</v>
       </c>
@@ -3905,12 +3984,14 @@
       <c r="F104" s="5">
         <v>32</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="14"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="5" t="s">
         <v>108</v>
       </c>
@@ -3924,12 +4005,14 @@
       <c r="F105" s="5">
         <v>6</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="14"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="5" t="s">
         <v>109</v>
       </c>
@@ -3943,12 +4026,14 @@
       <c r="F106" s="5">
         <v>16</v>
       </c>
-      <c r="G106" s="6"/>
+      <c r="G106" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="14"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="5" t="s">
         <v>110</v>
       </c>
@@ -3962,12 +4047,14 @@
       <c r="F107" s="5">
         <v>16</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="14"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="5" t="s">
         <v>111</v>
       </c>
@@ -3981,12 +4068,14 @@
       <c r="F108" s="5">
         <v>16</v>
       </c>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4002,12 +4091,14 @@
         <v>3</v>
       </c>
       <c r="F109" s="5"/>
-      <c r="G109" s="6"/>
+      <c r="G109" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="14"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="5" t="s">
         <v>68</v>
       </c>
@@ -4021,12 +4112,14 @@
         <v>6</v>
       </c>
       <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="14"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="5" t="s">
         <v>113</v>
       </c>
@@ -4040,12 +4133,14 @@
         <v>3</v>
       </c>
       <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
+      <c r="G111" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="14"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="5" t="s">
         <v>114</v>
       </c>
@@ -4059,12 +4154,14 @@
         <v>7</v>
       </c>
       <c r="F112" s="5"/>
-      <c r="G112" s="6"/>
+      <c r="G112" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="14"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="5" t="s">
         <v>115</v>
       </c>
@@ -4078,12 +4175,14 @@
         <v>6</v>
       </c>
       <c r="F113" s="5"/>
-      <c r="G113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="14"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="5" t="s">
         <v>84</v>
       </c>
@@ -4097,12 +4196,14 @@
         <v>3</v>
       </c>
       <c r="F114" s="5"/>
-      <c r="G114" s="6"/>
+      <c r="G114" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="14"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="5" t="s">
         <v>85</v>
       </c>
@@ -4116,12 +4217,14 @@
         <v>3</v>
       </c>
       <c r="F115" s="5"/>
-      <c r="G115" s="6"/>
+      <c r="G115" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="14"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="5" t="s">
         <v>116</v>
       </c>
@@ -4135,12 +4238,14 @@
         <v>50</v>
       </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="6"/>
+      <c r="G116" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="14"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="5" t="s">
         <v>117</v>
       </c>
@@ -4154,12 +4259,14 @@
         <v>6</v>
       </c>
       <c r="F117" s="5"/>
-      <c r="G117" s="6"/>
+      <c r="G117" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="14"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="5" t="s">
         <v>118</v>
       </c>
@@ -4173,12 +4280,14 @@
         <v>6</v>
       </c>
       <c r="F118" s="5"/>
-      <c r="G118" s="6"/>
+      <c r="G118" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="14"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="5" t="s">
         <v>81</v>
       </c>
@@ -4192,12 +4301,14 @@
         <v>6</v>
       </c>
       <c r="F119" s="5"/>
-      <c r="G119" s="6"/>
+      <c r="G119" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="14"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="5" t="s">
         <v>119</v>
       </c>
@@ -4211,12 +4322,14 @@
         <v>2</v>
       </c>
       <c r="F120" s="5"/>
-      <c r="G120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="14"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="5" t="s">
         <v>120</v>
       </c>
@@ -4230,12 +4343,14 @@
         <v>2</v>
       </c>
       <c r="F121" s="5"/>
-      <c r="G121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="14"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="5" t="s">
         <v>74</v>
       </c>
@@ -4249,12 +4364,14 @@
         <v>2</v>
       </c>
       <c r="F122" s="5"/>
-      <c r="G122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="14"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="5" t="s">
         <v>121</v>
       </c>
@@ -4266,12 +4383,14 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="14"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="5" t="s">
         <v>122</v>
       </c>
@@ -4285,12 +4404,14 @@
         <v>6</v>
       </c>
       <c r="F124" s="5"/>
-      <c r="G124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="14"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="5" t="s">
         <v>123</v>
       </c>
@@ -4302,12 +4423,14 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="14"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="5" t="s">
         <v>124</v>
       </c>
@@ -4321,12 +4444,14 @@
         <v>6</v>
       </c>
       <c r="F126" s="5"/>
-      <c r="G126" s="6"/>
+      <c r="G126" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="14"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="5" t="s">
         <v>125</v>
       </c>
@@ -4338,12 +4463,14 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="14"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="5" t="s">
         <v>126</v>
       </c>
@@ -4357,12 +4484,14 @@
       <c r="F128" s="5">
         <v>16</v>
       </c>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>353</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -4378,12 +4507,14 @@
         <v>3</v>
       </c>
       <c r="F129" s="5"/>
-      <c r="G129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="14"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="5" t="s">
         <v>114</v>
       </c>
@@ -4397,12 +4528,14 @@
         <v>7</v>
       </c>
       <c r="F130" s="5"/>
-      <c r="G130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="14"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="5" t="s">
         <v>115</v>
       </c>
@@ -4416,12 +4549,14 @@
         <v>6</v>
       </c>
       <c r="F131" s="5"/>
-      <c r="G131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="14"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="5" t="s">
         <v>28</v>
       </c>
@@ -4435,12 +4570,14 @@
         <v>20</v>
       </c>
       <c r="F132" s="5"/>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="14"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="5" t="s">
         <v>2</v>
       </c>
@@ -4454,12 +4591,14 @@
         <v>11</v>
       </c>
       <c r="F133" s="5"/>
-      <c r="G133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="14"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="5" t="s">
         <v>5</v>
       </c>
@@ -4473,12 +4612,14 @@
         <v>15</v>
       </c>
       <c r="F134" s="5"/>
-      <c r="G134" s="6"/>
+      <c r="G134" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="14"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="5" t="s">
         <v>128</v>
       </c>
@@ -4492,12 +4633,14 @@
         <v>150</v>
       </c>
       <c r="F135" s="5"/>
-      <c r="G135" s="6"/>
+      <c r="G135" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="14"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="5" t="s">
         <v>129</v>
       </c>
@@ -4511,12 +4654,14 @@
         <v>15</v>
       </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="14"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="5" t="s">
         <v>130</v>
       </c>
@@ -4530,12 +4675,14 @@
         <v>150</v>
       </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="14"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="5" t="s">
         <v>131</v>
       </c>
@@ -4549,12 +4696,14 @@
         <v>15</v>
       </c>
       <c r="F138" s="5"/>
-      <c r="G138" s="6"/>
+      <c r="G138" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="14"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="5" t="s">
         <v>132</v>
       </c>
@@ -4568,12 +4717,14 @@
         <v>100</v>
       </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="14"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="5" t="s">
         <v>10</v>
       </c>
@@ -4587,12 +4738,14 @@
         <v>200</v>
       </c>
       <c r="F140" s="5"/>
-      <c r="G140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="14"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="5" t="s">
         <v>133</v>
       </c>
@@ -4606,12 +4759,14 @@
         <v>100</v>
       </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="6"/>
+      <c r="G141" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="14"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="5" t="s">
         <v>55</v>
       </c>
@@ -4625,12 +4780,14 @@
         <v>200</v>
       </c>
       <c r="F142" s="5"/>
-      <c r="G142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="14"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="5" t="s">
         <v>134</v>
       </c>
@@ -4644,12 +4801,14 @@
         <v>3</v>
       </c>
       <c r="F143" s="5"/>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="14"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="5" t="s">
         <v>11</v>
       </c>
@@ -4663,12 +4822,14 @@
         <v>6</v>
       </c>
       <c r="F144" s="5"/>
-      <c r="G144" s="6"/>
+      <c r="G144" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="14"/>
+      <c r="A145" s="13"/>
       <c r="B145" s="5" t="s">
         <v>81</v>
       </c>
@@ -4682,12 +4843,14 @@
         <v>10</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="G145" s="6"/>
+      <c r="G145" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="14"/>
+      <c r="A146" s="13"/>
       <c r="B146" s="5" t="s">
         <v>135</v>
       </c>
@@ -4701,12 +4864,14 @@
         <v>10</v>
       </c>
       <c r="F146" s="5"/>
-      <c r="G146" s="6"/>
+      <c r="G146" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="14"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="5" t="s">
         <v>136</v>
       </c>
@@ -4720,12 +4885,14 @@
         <v>200</v>
       </c>
       <c r="F147" s="5"/>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="14"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="5" t="s">
         <v>137</v>
       </c>
@@ -4739,12 +4906,14 @@
         <v>200</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="6"/>
+      <c r="G148" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="14"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="5" t="s">
         <v>138</v>
       </c>
@@ -4758,12 +4927,14 @@
         <v>3</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="6"/>
+      <c r="G149" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="14"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="5" t="s">
         <v>139</v>
       </c>
@@ -4777,12 +4948,14 @@
         <v>6</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="G150" s="6"/>
+      <c r="G150" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="14"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="5" t="s">
         <v>140</v>
       </c>
@@ -4796,12 +4969,14 @@
         <v>50</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="6"/>
+      <c r="G151" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="14"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="5" t="s">
         <v>141</v>
       </c>
@@ -4815,12 +4990,14 @@
         <v>50</v>
       </c>
       <c r="F152" s="5"/>
-      <c r="G152" s="6"/>
+      <c r="G152" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="14"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="5" t="s">
         <v>142</v>
       </c>
@@ -4834,12 +5011,14 @@
         <v>50</v>
       </c>
       <c r="F153" s="5"/>
-      <c r="G153" s="6"/>
+      <c r="G153" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="14"/>
+      <c r="A154" s="13"/>
       <c r="B154" s="5" t="s">
         <v>143</v>
       </c>
@@ -4853,12 +5032,14 @@
         <v>50</v>
       </c>
       <c r="F154" s="5"/>
-      <c r="G154" s="6"/>
+      <c r="G154" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="14"/>
+      <c r="A155" s="13"/>
       <c r="B155" s="5" t="s">
         <v>144</v>
       </c>
@@ -4872,12 +5053,14 @@
         <v>50</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="6"/>
+      <c r="G155" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="14"/>
+      <c r="A156" s="13"/>
       <c r="B156" s="5" t="s">
         <v>145</v>
       </c>
@@ -4891,12 +5074,14 @@
         <v>50</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="6"/>
+      <c r="G156" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="14"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="5" t="s">
         <v>146</v>
       </c>
@@ -4910,12 +5095,14 @@
         <v>50</v>
       </c>
       <c r="F157" s="5"/>
-      <c r="G157" s="6"/>
+      <c r="G157" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="14"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="5" t="s">
         <v>147</v>
       </c>
@@ -4929,12 +5116,14 @@
         <v>50</v>
       </c>
       <c r="F158" s="5"/>
-      <c r="G158" s="6"/>
+      <c r="G158" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="14"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="5" t="s">
         <v>119</v>
       </c>
@@ -4948,12 +5137,14 @@
         <v>2</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="6"/>
+      <c r="G159" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="14"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="5" t="s">
         <v>120</v>
       </c>
@@ -4967,12 +5158,14 @@
         <v>2</v>
       </c>
       <c r="F160" s="5"/>
-      <c r="G160" s="6"/>
+      <c r="G160" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="14"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="5" t="s">
         <v>148</v>
       </c>
@@ -4986,12 +5179,14 @@
         <v>2</v>
       </c>
       <c r="F161" s="5"/>
-      <c r="G161" s="6"/>
+      <c r="G161" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="14"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="5" t="s">
         <v>149</v>
       </c>
@@ -5005,12 +5200,14 @@
         <v>2</v>
       </c>
       <c r="F162" s="5"/>
-      <c r="G162" s="6"/>
+      <c r="G162" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="14"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="5" t="s">
         <v>150</v>
       </c>
@@ -5024,12 +5221,14 @@
         <v>2</v>
       </c>
       <c r="F163" s="5"/>
-      <c r="G163" s="6"/>
+      <c r="G163" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="14"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="5" t="s">
         <v>151</v>
       </c>
@@ -5043,12 +5242,14 @@
         <v>2</v>
       </c>
       <c r="F164" s="5"/>
-      <c r="G164" s="6"/>
+      <c r="G164" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="14"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="5" t="s">
         <v>152</v>
       </c>
@@ -5062,12 +5263,14 @@
         <v>2</v>
       </c>
       <c r="F165" s="5"/>
-      <c r="G165" s="6"/>
+      <c r="G165" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="14"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="5" t="s">
         <v>153</v>
       </c>
@@ -5081,12 +5284,14 @@
         <v>2</v>
       </c>
       <c r="F166" s="5"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="14"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="5" t="s">
         <v>154</v>
       </c>
@@ -5100,12 +5305,14 @@
         <v>2</v>
       </c>
       <c r="F167" s="5"/>
-      <c r="G167" s="6"/>
+      <c r="G167" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="14"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="5" t="s">
         <v>155</v>
       </c>
@@ -5119,12 +5326,14 @@
         <v>6</v>
       </c>
       <c r="F168" s="5"/>
-      <c r="G168" s="6"/>
+      <c r="G168" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="14"/>
+      <c r="A169" s="13"/>
       <c r="B169" s="5" t="s">
         <v>156</v>
       </c>
@@ -5136,12 +5345,14 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="6"/>
+      <c r="G169" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="14"/>
+      <c r="A170" s="13"/>
       <c r="B170" s="5" t="s">
         <v>157</v>
       </c>
@@ -5153,12 +5364,14 @@
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="6"/>
+      <c r="G170" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="14"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="5" t="s">
         <v>158</v>
       </c>
@@ -5172,12 +5385,14 @@
         <v>6</v>
       </c>
       <c r="F171" s="5"/>
-      <c r="G171" s="6"/>
+      <c r="G171" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="14"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="5" t="s">
         <v>159</v>
       </c>
@@ -5189,12 +5404,14 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="6"/>
+      <c r="G172" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="14"/>
+      <c r="A173" s="13"/>
       <c r="B173" s="5" t="s">
         <v>160</v>
       </c>
@@ -5206,12 +5423,14 @@
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="6"/>
+      <c r="G173" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="14"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="5" t="s">
         <v>161</v>
       </c>
@@ -5225,12 +5444,14 @@
         <v>6</v>
       </c>
       <c r="F174" s="5"/>
-      <c r="G174" s="6"/>
+      <c r="G174" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="14"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="5" t="s">
         <v>162</v>
       </c>
@@ -5242,12 +5463,14 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="6"/>
+      <c r="G175" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="14"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="5" t="s">
         <v>163</v>
       </c>
@@ -5259,12 +5482,14 @@
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="6"/>
+      <c r="G176" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="14"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="5" t="s">
         <v>164</v>
       </c>
@@ -5278,12 +5503,14 @@
       <c r="F177" s="5">
         <v>32</v>
       </c>
-      <c r="G177" s="6"/>
+      <c r="G177" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="14"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="5" t="s">
         <v>68</v>
       </c>
@@ -5297,12 +5524,14 @@
         <v>6</v>
       </c>
       <c r="F178" s="5"/>
-      <c r="G178" s="6"/>
+      <c r="G178" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="14"/>
+      <c r="A179" s="13"/>
       <c r="B179" s="5" t="s">
         <v>165</v>
       </c>
@@ -5316,12 +5545,14 @@
         <v>6</v>
       </c>
       <c r="F179" s="5"/>
-      <c r="G179" s="6"/>
+      <c r="G179" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="14"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="5" t="s">
         <v>166</v>
       </c>
@@ -5335,12 +5566,14 @@
         <v>150</v>
       </c>
       <c r="F180" s="5"/>
-      <c r="G180" s="6"/>
+      <c r="G180" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="14"/>
+      <c r="A181" s="13"/>
       <c r="B181" s="5" t="s">
         <v>167</v>
       </c>
@@ -5354,12 +5587,14 @@
         <v>8</v>
       </c>
       <c r="F181" s="5"/>
-      <c r="G181" s="6"/>
+      <c r="G181" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="14"/>
+      <c r="A182" s="13"/>
       <c r="B182" s="5" t="s">
         <v>168</v>
       </c>
@@ -5373,12 +5608,14 @@
         <v>30</v>
       </c>
       <c r="F182" s="5"/>
-      <c r="G182" s="6"/>
+      <c r="G182" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="14"/>
+      <c r="A183" s="13"/>
       <c r="B183" s="5" t="s">
         <v>169</v>
       </c>
@@ -5392,12 +5629,14 @@
         <v>30</v>
       </c>
       <c r="F183" s="5"/>
-      <c r="G183" s="6"/>
+      <c r="G183" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="14"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="5" t="s">
         <v>170</v>
       </c>
@@ -5411,12 +5650,14 @@
         <v>30</v>
       </c>
       <c r="F184" s="5"/>
-      <c r="G184" s="6"/>
+      <c r="G184" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="14"/>
+      <c r="A185" s="13"/>
       <c r="B185" s="5" t="s">
         <v>171</v>
       </c>
@@ -5430,12 +5671,14 @@
         <v>2</v>
       </c>
       <c r="F185" s="5"/>
-      <c r="G185" s="6"/>
+      <c r="G185" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="14"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="5" t="s">
         <v>172</v>
       </c>
@@ -5449,12 +5692,14 @@
         <v>30</v>
       </c>
       <c r="F186" s="5"/>
-      <c r="G186" s="6"/>
+      <c r="G186" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="14"/>
+      <c r="A187" s="13"/>
       <c r="B187" s="5" t="s">
         <v>13</v>
       </c>
@@ -5468,12 +5713,14 @@
         <v>30</v>
       </c>
       <c r="F187" s="5"/>
-      <c r="G187" s="6"/>
+      <c r="G187" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="14"/>
+      <c r="A188" s="13"/>
       <c r="B188" s="5" t="s">
         <v>173</v>
       </c>
@@ -5487,12 +5734,14 @@
         <v>30</v>
       </c>
       <c r="F188" s="5"/>
-      <c r="G188" s="6"/>
+      <c r="G188" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="14"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="5" t="s">
         <v>174</v>
       </c>
@@ -5506,12 +5755,14 @@
         <v>30</v>
       </c>
       <c r="F189" s="5"/>
-      <c r="G189" s="6"/>
+      <c r="G189" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="14"/>
+      <c r="A190" s="13"/>
       <c r="B190" s="5" t="s">
         <v>175</v>
       </c>
@@ -5525,12 +5776,14 @@
         <v>30</v>
       </c>
       <c r="F190" s="5"/>
-      <c r="G190" s="6"/>
+      <c r="G190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="14"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="5" t="s">
         <v>176</v>
       </c>
@@ -5544,12 +5797,14 @@
         <v>30</v>
       </c>
       <c r="F191" s="5"/>
-      <c r="G191" s="6"/>
+      <c r="G191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="14"/>
+      <c r="A192" s="13"/>
       <c r="B192" s="5" t="s">
         <v>177</v>
       </c>
@@ -5563,12 +5818,14 @@
         <v>30</v>
       </c>
       <c r="F192" s="5"/>
-      <c r="G192" s="6"/>
+      <c r="G192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="14"/>
+      <c r="A193" s="13"/>
       <c r="B193" s="5" t="s">
         <v>178</v>
       </c>
@@ -5582,12 +5839,14 @@
         <v>30</v>
       </c>
       <c r="F193" s="5"/>
-      <c r="G193" s="6"/>
+      <c r="G193" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="14"/>
+      <c r="A194" s="13"/>
       <c r="B194" s="5" t="s">
         <v>179</v>
       </c>
@@ -5601,12 +5860,14 @@
         <v>30</v>
       </c>
       <c r="F194" s="5"/>
-      <c r="G194" s="6"/>
+      <c r="G194" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="14"/>
+      <c r="A195" s="13"/>
       <c r="B195" s="5" t="s">
         <v>180</v>
       </c>
@@ -5620,12 +5881,14 @@
         <v>20</v>
       </c>
       <c r="F195" s="5"/>
-      <c r="G195" s="6"/>
+      <c r="G195" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="14"/>
+      <c r="A196" s="13"/>
       <c r="B196" s="5" t="s">
         <v>181</v>
       </c>
@@ -5639,12 +5902,14 @@
         <v>1</v>
       </c>
       <c r="F196" s="5"/>
-      <c r="G196" s="6"/>
+      <c r="G196" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="14"/>
+      <c r="A197" s="13"/>
       <c r="B197" s="5" t="s">
         <v>182</v>
       </c>
@@ -5658,12 +5923,14 @@
         <v>6</v>
       </c>
       <c r="F197" s="5"/>
-      <c r="G197" s="6"/>
+      <c r="G197" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="14"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="5" t="s">
         <v>183</v>
       </c>
@@ -5675,12 +5942,14 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="6"/>
+      <c r="G198" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="14"/>
+      <c r="A199" s="13"/>
       <c r="B199" s="5" t="s">
         <v>184</v>
       </c>
@@ -5694,12 +5963,14 @@
         <v>20</v>
       </c>
       <c r="F199" s="5"/>
-      <c r="G199" s="6"/>
+      <c r="G199" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="14"/>
+      <c r="A200" s="13"/>
       <c r="B200" s="5" t="s">
         <v>185</v>
       </c>
@@ -5713,12 +5984,14 @@
         <v>1</v>
       </c>
       <c r="F200" s="5"/>
-      <c r="G200" s="6"/>
+      <c r="G200" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="14"/>
+      <c r="A201" s="13"/>
       <c r="B201" s="5" t="s">
         <v>186</v>
       </c>
@@ -5732,12 +6005,14 @@
         <v>1</v>
       </c>
       <c r="F201" s="5"/>
-      <c r="G201" s="6"/>
+      <c r="G201" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="14"/>
+      <c r="A202" s="13"/>
       <c r="B202" s="5" t="s">
         <v>187</v>
       </c>
@@ -5749,12 +6024,14 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="6"/>
+      <c r="G202" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="14"/>
+      <c r="A203" s="13"/>
       <c r="B203" s="5" t="s">
         <v>188</v>
       </c>
@@ -5768,12 +6045,14 @@
         <v>6</v>
       </c>
       <c r="F203" s="5"/>
-      <c r="G203" s="6"/>
+      <c r="G203" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="14"/>
+      <c r="A204" s="13"/>
       <c r="B204" s="5" t="s">
         <v>17</v>
       </c>
@@ -5787,12 +6066,14 @@
         <v>200</v>
       </c>
       <c r="F204" s="5"/>
-      <c r="G204" s="6"/>
+      <c r="G204" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="14"/>
+      <c r="A205" s="13"/>
       <c r="B205" s="5" t="s">
         <v>189</v>
       </c>
@@ -5806,12 +6087,14 @@
       <c r="F205" s="5">
         <v>32</v>
       </c>
-      <c r="G205" s="6"/>
+      <c r="G205" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="14"/>
+      <c r="A206" s="13"/>
       <c r="B206" s="5" t="s">
         <v>190</v>
       </c>
@@ -5825,12 +6108,14 @@
         <v>1</v>
       </c>
       <c r="F206" s="5"/>
-      <c r="G206" s="6"/>
+      <c r="G206" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="14"/>
+      <c r="A207" s="13"/>
       <c r="B207" s="5" t="s">
         <v>191</v>
       </c>
@@ -5844,12 +6129,14 @@
         <v>2</v>
       </c>
       <c r="F207" s="5"/>
-      <c r="G207" s="6"/>
+      <c r="G207" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="14"/>
+      <c r="A208" s="13"/>
       <c r="B208" s="5" t="s">
         <v>192</v>
       </c>
@@ -5863,12 +6150,14 @@
       <c r="F208" s="5">
         <v>10</v>
       </c>
-      <c r="G208" s="6"/>
+      <c r="G208" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="14"/>
+      <c r="A209" s="13"/>
       <c r="B209" s="5" t="s">
         <v>193</v>
       </c>
@@ -5882,12 +6171,14 @@
       <c r="F209" s="5">
         <v>10</v>
       </c>
-      <c r="G209" s="6"/>
+      <c r="G209" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="14"/>
+      <c r="A210" s="13"/>
       <c r="B210" s="5" t="s">
         <v>194</v>
       </c>
@@ -5901,12 +6192,14 @@
       <c r="F210" s="5">
         <v>10</v>
       </c>
-      <c r="G210" s="6"/>
+      <c r="G210" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="14"/>
+      <c r="A211" s="13"/>
       <c r="B211" s="5" t="s">
         <v>195</v>
       </c>
@@ -5920,12 +6213,14 @@
       <c r="F211" s="5">
         <v>10</v>
       </c>
-      <c r="G211" s="6"/>
+      <c r="G211" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="14"/>
+      <c r="A212" s="13"/>
       <c r="B212" s="5" t="s">
         <v>196</v>
       </c>
@@ -5939,12 +6234,14 @@
       <c r="F212" s="5">
         <v>10</v>
       </c>
-      <c r="G212" s="6"/>
+      <c r="G212" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="14"/>
+      <c r="A213" s="13"/>
       <c r="B213" s="5" t="s">
         <v>6</v>
       </c>
@@ -5958,12 +6255,14 @@
         <v>11</v>
       </c>
       <c r="F213" s="5"/>
-      <c r="G213" s="6"/>
+      <c r="G213" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="14"/>
+      <c r="A214" s="13"/>
       <c r="B214" s="5" t="s">
         <v>197</v>
       </c>
@@ -5977,12 +6276,14 @@
         <v>8</v>
       </c>
       <c r="F214" s="5"/>
-      <c r="G214" s="6"/>
+      <c r="G214" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="14"/>
+      <c r="A215" s="13"/>
       <c r="B215" s="5" t="s">
         <v>198</v>
       </c>
@@ -5996,12 +6297,14 @@
         <v>100</v>
       </c>
       <c r="F215" s="5"/>
-      <c r="G215" s="6"/>
+      <c r="G215" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="14"/>
+      <c r="A216" s="13"/>
       <c r="B216" s="5" t="s">
         <v>199</v>
       </c>
@@ -6015,12 +6318,14 @@
         <v>3</v>
       </c>
       <c r="F216" s="5"/>
-      <c r="G216" s="6"/>
+      <c r="G216" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="14"/>
+      <c r="A217" s="13"/>
       <c r="B217" s="5" t="s">
         <v>67</v>
       </c>
@@ -6034,12 +6339,14 @@
         <v>3</v>
       </c>
       <c r="F217" s="5"/>
-      <c r="G217" s="6"/>
+      <c r="G217" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="14"/>
+      <c r="A218" s="13"/>
       <c r="B218" s="5" t="s">
         <v>200</v>
       </c>
@@ -6053,12 +6360,14 @@
         <v>6</v>
       </c>
       <c r="F218" s="5"/>
-      <c r="G218" s="6"/>
+      <c r="G218" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="14"/>
+      <c r="A219" s="13"/>
       <c r="B219" s="5" t="s">
         <v>201</v>
       </c>
@@ -6070,12 +6379,14 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="6"/>
+      <c r="G219" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="14"/>
+      <c r="A220" s="13"/>
       <c r="B220" s="5" t="s">
         <v>202</v>
       </c>
@@ -6089,12 +6400,14 @@
         <v>1</v>
       </c>
       <c r="F220" s="5"/>
-      <c r="G220" s="6"/>
+      <c r="G220" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="14"/>
+      <c r="A221" s="13"/>
       <c r="B221" s="5" t="s">
         <v>203</v>
       </c>
@@ -6108,12 +6421,14 @@
         <v>1</v>
       </c>
       <c r="F221" s="5"/>
-      <c r="G221" s="6"/>
+      <c r="G221" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="14"/>
+      <c r="A222" s="13"/>
       <c r="B222" s="5" t="s">
         <v>204</v>
       </c>
@@ -6127,12 +6442,14 @@
         <v>6</v>
       </c>
       <c r="F222" s="5"/>
-      <c r="G222" s="6"/>
+      <c r="G222" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="14"/>
+      <c r="A223" s="13"/>
       <c r="B223" s="5" t="s">
         <v>205</v>
       </c>
@@ -6144,12 +6461,14 @@
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="6"/>
+      <c r="G223" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="14"/>
+      <c r="A224" s="13"/>
       <c r="B224" s="5" t="s">
         <v>206</v>
       </c>
@@ -6163,12 +6482,14 @@
         <v>3</v>
       </c>
       <c r="F224" s="5"/>
-      <c r="G224" s="6"/>
+      <c r="G224" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="14"/>
+      <c r="A225" s="13"/>
       <c r="B225" s="5" t="s">
         <v>207</v>
       </c>
@@ -6182,12 +6503,14 @@
         <v>6</v>
       </c>
       <c r="F225" s="5"/>
-      <c r="G225" s="6"/>
+      <c r="G225" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="14"/>
+      <c r="A226" s="13"/>
       <c r="B226" s="5" t="s">
         <v>208</v>
       </c>
@@ -6201,12 +6524,14 @@
         <v>1</v>
       </c>
       <c r="F226" s="5"/>
-      <c r="G226" s="6"/>
+      <c r="G226" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="14"/>
+      <c r="A227" s="13"/>
       <c r="B227" s="5" t="s">
         <v>209</v>
       </c>
@@ -6220,12 +6545,14 @@
         <v>6</v>
       </c>
       <c r="F227" s="5"/>
-      <c r="G227" s="6"/>
+      <c r="G227" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="14"/>
+      <c r="A228" s="13"/>
       <c r="B228" s="5" t="s">
         <v>210</v>
       </c>
@@ -6237,12 +6564,14 @@
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
-      <c r="G228" s="6"/>
+      <c r="G228" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="14"/>
+      <c r="A229" s="13"/>
       <c r="B229" s="5" t="s">
         <v>211</v>
       </c>
@@ -6256,12 +6585,14 @@
         <v>20</v>
       </c>
       <c r="F229" s="5"/>
-      <c r="G229" s="6"/>
+      <c r="G229" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="14"/>
+      <c r="A230" s="13"/>
       <c r="B230" s="5" t="s">
         <v>212</v>
       </c>
@@ -6275,12 +6606,14 @@
         <v>6</v>
       </c>
       <c r="F230" s="5"/>
-      <c r="G230" s="6"/>
+      <c r="G230" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="14"/>
+      <c r="A231" s="13"/>
       <c r="B231" s="5" t="s">
         <v>213</v>
       </c>
@@ -6292,12 +6625,14 @@
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
-      <c r="G231" s="6"/>
+      <c r="G231" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="14"/>
+      <c r="A232" s="13"/>
       <c r="B232" s="5" t="s">
         <v>214</v>
       </c>
@@ -6311,12 +6646,14 @@
       <c r="F232" s="5">
         <v>16</v>
       </c>
-      <c r="G232" s="6"/>
+      <c r="G232" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="14"/>
+      <c r="A233" s="13"/>
       <c r="B233" s="5" t="s">
         <v>215</v>
       </c>
@@ -6330,12 +6667,14 @@
       <c r="F233" s="5">
         <v>16</v>
       </c>
-      <c r="G233" s="6"/>
+      <c r="G233" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="14"/>
+      <c r="A234" s="13"/>
       <c r="B234" s="5" t="s">
         <v>216</v>
       </c>
@@ -6349,12 +6688,14 @@
       <c r="F234" s="5">
         <v>32</v>
       </c>
-      <c r="G234" s="6"/>
+      <c r="G234" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="14"/>
+      <c r="A235" s="13"/>
       <c r="B235" s="5" t="s">
         <v>217</v>
       </c>
@@ -6368,12 +6709,14 @@
       <c r="F235" s="5">
         <v>16</v>
       </c>
-      <c r="G235" s="6"/>
+      <c r="G235" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="14"/>
+      <c r="A236" s="13"/>
       <c r="B236" s="5" t="s">
         <v>108</v>
       </c>
@@ -6387,12 +6730,14 @@
       <c r="F236" s="5">
         <v>10</v>
       </c>
-      <c r="G236" s="6"/>
+      <c r="G236" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="14"/>
+      <c r="A237" s="13"/>
       <c r="B237" s="5" t="s">
         <v>218</v>
       </c>
@@ -6406,12 +6751,14 @@
       <c r="F237" s="5">
         <v>10</v>
       </c>
-      <c r="G237" s="6"/>
+      <c r="G237" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="14"/>
+      <c r="A238" s="13"/>
       <c r="B238" s="5" t="s">
         <v>219</v>
       </c>
@@ -6425,12 +6772,14 @@
       <c r="F238" s="5">
         <v>10</v>
       </c>
-      <c r="G238" s="6"/>
+      <c r="G238" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="14"/>
+      <c r="A239" s="13"/>
       <c r="B239" s="5" t="s">
         <v>220</v>
       </c>
@@ -6444,12 +6793,14 @@
       <c r="F239" s="5">
         <v>32</v>
       </c>
-      <c r="G239" s="6"/>
+      <c r="G239" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="14"/>
+      <c r="A240" s="13"/>
       <c r="B240" s="5" t="s">
         <v>221</v>
       </c>
@@ -6463,12 +6814,14 @@
       <c r="F240" s="5">
         <v>16</v>
       </c>
-      <c r="G240" s="6"/>
+      <c r="G240" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="14"/>
+      <c r="A241" s="13"/>
       <c r="B241" s="5" t="s">
         <v>222</v>
       </c>
@@ -6482,12 +6835,14 @@
       <c r="F241" s="5">
         <v>16</v>
       </c>
-      <c r="G241" s="6"/>
+      <c r="G241" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="13" t="s">
         <v>354</v>
       </c>
       <c r="B242" s="5" t="s">
@@ -6503,12 +6858,14 @@
         <v>3</v>
       </c>
       <c r="F242" s="5"/>
-      <c r="G242" s="6"/>
+      <c r="G242" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="14"/>
+      <c r="A243" s="13"/>
       <c r="B243" s="5" t="s">
         <v>114</v>
       </c>
@@ -6522,12 +6879,14 @@
         <v>7</v>
       </c>
       <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
+      <c r="G243" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="14"/>
+      <c r="A244" s="13"/>
       <c r="B244" s="5" t="s">
         <v>28</v>
       </c>
@@ -6541,12 +6900,14 @@
         <v>20</v>
       </c>
       <c r="F244" s="5"/>
-      <c r="G244" s="6"/>
+      <c r="G244" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="14"/>
+      <c r="A245" s="13"/>
       <c r="B245" s="5" t="s">
         <v>2</v>
       </c>
@@ -6560,12 +6921,14 @@
         <v>11</v>
       </c>
       <c r="F245" s="5"/>
-      <c r="G245" s="6"/>
+      <c r="G245" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="14"/>
+      <c r="A246" s="13"/>
       <c r="B246" s="5" t="s">
         <v>5</v>
       </c>
@@ -6579,12 +6942,14 @@
         <v>15</v>
       </c>
       <c r="F246" s="5"/>
-      <c r="G246" s="6"/>
+      <c r="G246" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="14"/>
+      <c r="A247" s="13"/>
       <c r="B247" s="5" t="s">
         <v>224</v>
       </c>
@@ -6598,12 +6963,14 @@
         <v>2</v>
       </c>
       <c r="F247" s="5"/>
-      <c r="G247" s="6"/>
+      <c r="G247" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="14"/>
+      <c r="A248" s="13"/>
       <c r="B248" s="5" t="s">
         <v>225</v>
       </c>
@@ -6617,12 +6984,14 @@
         <v>2</v>
       </c>
       <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
+      <c r="G248" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="14"/>
+      <c r="A249" s="13"/>
       <c r="B249" s="5" t="s">
         <v>226</v>
       </c>
@@ -6636,12 +7005,14 @@
         <v>4</v>
       </c>
       <c r="F249" s="5"/>
-      <c r="G249" s="6"/>
+      <c r="G249" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="14"/>
+      <c r="A250" s="13"/>
       <c r="B250" s="5" t="s">
         <v>227</v>
       </c>
@@ -6655,12 +7026,14 @@
         <v>4</v>
       </c>
       <c r="F250" s="5"/>
-      <c r="G250" s="6"/>
+      <c r="G250" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="14"/>
+      <c r="A251" s="13"/>
       <c r="B251" s="5" t="s">
         <v>228</v>
       </c>
@@ -6674,12 +7047,14 @@
         <v>2</v>
       </c>
       <c r="F251" s="5"/>
-      <c r="G251" s="6"/>
+      <c r="G251" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="14"/>
+      <c r="A252" s="13"/>
       <c r="B252" s="5" t="s">
         <v>229</v>
       </c>
@@ -6691,12 +7066,14 @@
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
-      <c r="G252" s="6"/>
+      <c r="G252" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="14"/>
+      <c r="A253" s="13"/>
       <c r="B253" s="5" t="s">
         <v>230</v>
       </c>
@@ -6708,12 +7085,14 @@
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
-      <c r="G253" s="6"/>
+      <c r="G253" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="14"/>
+      <c r="A254" s="13"/>
       <c r="B254" s="5" t="s">
         <v>231</v>
       </c>
@@ -6725,12 +7104,14 @@
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
-      <c r="G254" s="6"/>
+      <c r="G254" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="14"/>
+      <c r="A255" s="13"/>
       <c r="B255" s="5" t="s">
         <v>232</v>
       </c>
@@ -6742,12 +7123,14 @@
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
-      <c r="G255" s="6"/>
+      <c r="G255" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
     </row>
     <row r="256" spans="1:9">
-      <c r="A256" s="14"/>
+      <c r="A256" s="13"/>
       <c r="B256" s="5" t="s">
         <v>233</v>
       </c>
@@ -6761,12 +7144,14 @@
         <v>2</v>
       </c>
       <c r="F256" s="5"/>
-      <c r="G256" s="6"/>
+      <c r="G256" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="14"/>
+      <c r="A257" s="13"/>
       <c r="B257" s="5" t="s">
         <v>165</v>
       </c>
@@ -6780,12 +7165,14 @@
         <v>6</v>
       </c>
       <c r="F257" s="5"/>
-      <c r="G257" s="6"/>
+      <c r="G257" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
     </row>
     <row r="258" spans="1:9">
-      <c r="A258" s="14"/>
+      <c r="A258" s="13"/>
       <c r="B258" s="5" t="s">
         <v>18</v>
       </c>
@@ -6799,12 +7186,14 @@
         <v>6</v>
       </c>
       <c r="F258" s="5"/>
-      <c r="G258" s="6"/>
+      <c r="G258" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
     <row r="259" spans="1:9">
-      <c r="A259" s="14"/>
+      <c r="A259" s="13"/>
       <c r="B259" s="5" t="s">
         <v>19</v>
       </c>
@@ -6816,12 +7205,14 @@
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
-      <c r="G259" s="6"/>
+      <c r="G259" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" s="14"/>
+      <c r="A260" s="13"/>
       <c r="B260" s="5" t="s">
         <v>22</v>
       </c>
@@ -6835,12 +7226,14 @@
         <v>6</v>
       </c>
       <c r="F260" s="5"/>
-      <c r="G260" s="6"/>
+      <c r="G260" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
     </row>
     <row r="261" spans="1:9">
-      <c r="A261" s="14"/>
+      <c r="A261" s="13"/>
       <c r="B261" s="5" t="s">
         <v>23</v>
       </c>
@@ -6852,12 +7245,14 @@
       </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
-      <c r="G261" s="6"/>
+      <c r="G261" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
     <row r="262" spans="1:9">
-      <c r="A262" s="14"/>
+      <c r="A262" s="13"/>
       <c r="B262" s="5" t="s">
         <v>16</v>
       </c>
@@ -6871,12 +7266,14 @@
         <v>6</v>
       </c>
       <c r="F262" s="5"/>
-      <c r="G262" s="6"/>
+      <c r="G262" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
     </row>
     <row r="263" spans="1:9">
-      <c r="A263" s="14"/>
+      <c r="A263" s="13"/>
       <c r="B263" s="5" t="s">
         <v>234</v>
       </c>
@@ -6890,12 +7287,14 @@
         <v>50</v>
       </c>
       <c r="F263" s="5"/>
-      <c r="G263" s="6"/>
+      <c r="G263" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" s="14"/>
+      <c r="A264" s="13"/>
       <c r="B264" s="5" t="s">
         <v>235</v>
       </c>
@@ -6909,12 +7308,14 @@
         <v>3</v>
       </c>
       <c r="F264" s="5"/>
-      <c r="G264" s="6"/>
+      <c r="G264" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
     </row>
     <row r="265" spans="1:9">
-      <c r="A265" s="14"/>
+      <c r="A265" s="13"/>
       <c r="B265" s="5" t="s">
         <v>236</v>
       </c>
@@ -6928,12 +7329,14 @@
         <v>3</v>
       </c>
       <c r="F265" s="5"/>
-      <c r="G265" s="6"/>
+      <c r="G265" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
     </row>
     <row r="266" spans="1:9">
-      <c r="A266" s="14"/>
+      <c r="A266" s="13"/>
       <c r="B266" s="5" t="s">
         <v>237</v>
       </c>
@@ -6947,12 +7350,14 @@
         <v>6</v>
       </c>
       <c r="F266" s="5"/>
-      <c r="G266" s="6"/>
+      <c r="G266" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
     </row>
     <row r="267" spans="1:9">
-      <c r="A267" s="14"/>
+      <c r="A267" s="13"/>
       <c r="B267" s="5" t="s">
         <v>238</v>
       </c>
@@ -6966,12 +7371,14 @@
         <v>2</v>
       </c>
       <c r="F267" s="5"/>
-      <c r="G267" s="6"/>
+      <c r="G267" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
     </row>
     <row r="268" spans="1:9">
-      <c r="A268" s="14"/>
+      <c r="A268" s="13"/>
       <c r="B268" s="5" t="s">
         <v>239</v>
       </c>
@@ -6985,12 +7392,14 @@
       <c r="F268" s="5">
         <v>5</v>
       </c>
-      <c r="G268" s="6"/>
+      <c r="G268" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
     </row>
     <row r="269" spans="1:9">
-      <c r="A269" s="14"/>
+      <c r="A269" s="13"/>
       <c r="B269" s="5" t="s">
         <v>240</v>
       </c>
@@ -7004,12 +7413,14 @@
         <v>2</v>
       </c>
       <c r="F269" s="5"/>
-      <c r="G269" s="6"/>
+      <c r="G269" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="14"/>
+      <c r="A270" s="13"/>
       <c r="B270" s="5" t="s">
         <v>241</v>
       </c>
@@ -7023,12 +7434,14 @@
         <v>3</v>
       </c>
       <c r="F270" s="5"/>
-      <c r="G270" s="6"/>
+      <c r="G270" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
     </row>
     <row r="271" spans="1:9">
-      <c r="A271" s="14"/>
+      <c r="A271" s="13"/>
       <c r="B271" s="5" t="s">
         <v>242</v>
       </c>
@@ -7042,12 +7455,14 @@
       <c r="F271" s="5">
         <v>15</v>
       </c>
-      <c r="G271" s="6"/>
+      <c r="G271" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
     </row>
     <row r="272" spans="1:9">
-      <c r="A272" s="14"/>
+      <c r="A272" s="13"/>
       <c r="B272" s="5" t="s">
         <v>243</v>
       </c>
@@ -7061,12 +7476,14 @@
       <c r="F272" s="5">
         <v>15</v>
       </c>
-      <c r="G272" s="6"/>
+      <c r="G272" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
     </row>
     <row r="273" spans="1:9">
-      <c r="A273" s="14"/>
+      <c r="A273" s="13"/>
       <c r="B273" s="5" t="s">
         <v>244</v>
       </c>
@@ -7080,12 +7497,14 @@
       <c r="F273" s="5">
         <v>15</v>
       </c>
-      <c r="G273" s="6"/>
+      <c r="G273" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
     </row>
     <row r="274" spans="1:9">
-      <c r="A274" s="14"/>
+      <c r="A274" s="13"/>
       <c r="B274" s="5" t="s">
         <v>185</v>
       </c>
@@ -7099,12 +7518,14 @@
         <v>1</v>
       </c>
       <c r="F274" s="5"/>
-      <c r="G274" s="6"/>
+      <c r="G274" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
     </row>
     <row r="275" spans="1:9">
-      <c r="A275" s="14"/>
+      <c r="A275" s="13"/>
       <c r="B275" s="5" t="s">
         <v>245</v>
       </c>
@@ -7118,12 +7539,14 @@
       <c r="F275" s="5">
         <v>9</v>
       </c>
-      <c r="G275" s="6"/>
+      <c r="G275" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
     </row>
     <row r="276" spans="1:9">
-      <c r="A276" s="14"/>
+      <c r="A276" s="13"/>
       <c r="B276" s="5" t="s">
         <v>246</v>
       </c>
@@ -7137,12 +7560,14 @@
         <v>1</v>
       </c>
       <c r="F276" s="5"/>
-      <c r="G276" s="6"/>
+      <c r="G276" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
     </row>
     <row r="277" spans="1:9">
-      <c r="A277" s="14"/>
+      <c r="A277" s="13"/>
       <c r="B277" s="5" t="s">
         <v>17</v>
       </c>
@@ -7154,12 +7579,14 @@
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
-      <c r="G277" s="6"/>
+      <c r="G277" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
     <row r="278" spans="1:9">
-      <c r="A278" s="14"/>
+      <c r="A278" s="13"/>
       <c r="B278" s="5" t="s">
         <v>247</v>
       </c>
@@ -7173,12 +7600,14 @@
         <v>10</v>
       </c>
       <c r="F278" s="5"/>
-      <c r="G278" s="6"/>
+      <c r="G278" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
     </row>
     <row r="279" spans="1:9">
-      <c r="A279" s="14"/>
+      <c r="A279" s="13"/>
       <c r="B279" s="5" t="s">
         <v>84</v>
       </c>
@@ -7192,12 +7621,14 @@
         <v>3</v>
       </c>
       <c r="F279" s="5"/>
-      <c r="G279" s="6"/>
+      <c r="G279" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
     </row>
     <row r="280" spans="1:9">
-      <c r="A280" s="14"/>
+      <c r="A280" s="13"/>
       <c r="B280" s="5" t="s">
         <v>81</v>
       </c>
@@ -7211,12 +7642,14 @@
         <v>4</v>
       </c>
       <c r="F280" s="5"/>
-      <c r="G280" s="6"/>
+      <c r="G280" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
     </row>
     <row r="281" spans="1:9">
-      <c r="A281" s="14"/>
+      <c r="A281" s="13"/>
       <c r="B281" s="5" t="s">
         <v>248</v>
       </c>
@@ -7230,12 +7663,14 @@
         <v>6</v>
       </c>
       <c r="F281" s="5"/>
-      <c r="G281" s="6"/>
+      <c r="G281" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
     </row>
     <row r="282" spans="1:9">
-      <c r="A282" s="14"/>
+      <c r="A282" s="13"/>
       <c r="B282" s="5" t="s">
         <v>249</v>
       </c>
@@ -7247,12 +7682,14 @@
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
-      <c r="G282" s="6"/>
+      <c r="G282" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
     </row>
     <row r="283" spans="1:9">
-      <c r="A283" s="14"/>
+      <c r="A283" s="13"/>
       <c r="B283" s="5" t="s">
         <v>250</v>
       </c>
@@ -7266,12 +7703,14 @@
         <v>10</v>
       </c>
       <c r="F283" s="5"/>
-      <c r="G283" s="6"/>
+      <c r="G283" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
     </row>
     <row r="284" spans="1:9">
-      <c r="A284" s="14"/>
+      <c r="A284" s="13"/>
       <c r="B284" s="5" t="s">
         <v>251</v>
       </c>
@@ -7285,12 +7724,14 @@
         <v>10</v>
       </c>
       <c r="F284" s="5"/>
-      <c r="G284" s="6"/>
+      <c r="G284" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
     </row>
     <row r="285" spans="1:9">
-      <c r="A285" s="14"/>
+      <c r="A285" s="13"/>
       <c r="B285" s="5" t="s">
         <v>252</v>
       </c>
@@ -7304,12 +7745,14 @@
         <v>1</v>
       </c>
       <c r="F285" s="5"/>
-      <c r="G285" s="6"/>
+      <c r="G285" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
     </row>
     <row r="286" spans="1:9">
-      <c r="A286" s="14"/>
+      <c r="A286" s="13"/>
       <c r="B286" s="5" t="s">
         <v>253</v>
       </c>
@@ -7323,12 +7766,14 @@
         <v>50</v>
       </c>
       <c r="F286" s="5"/>
-      <c r="G286" s="6"/>
+      <c r="G286" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
     </row>
     <row r="287" spans="1:9">
-      <c r="A287" s="14"/>
+      <c r="A287" s="13"/>
       <c r="B287" s="5" t="s">
         <v>254</v>
       </c>
@@ -7342,12 +7787,14 @@
         <v>7</v>
       </c>
       <c r="F287" s="5"/>
-      <c r="G287" s="6"/>
+      <c r="G287" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
     </row>
     <row r="288" spans="1:9">
-      <c r="A288" s="14"/>
+      <c r="A288" s="13"/>
       <c r="B288" s="5" t="s">
         <v>255</v>
       </c>
@@ -7361,12 +7808,14 @@
         <v>1</v>
       </c>
       <c r="F288" s="5"/>
-      <c r="G288" s="6"/>
+      <c r="G288" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
     </row>
     <row r="289" spans="1:9">
-      <c r="A289" s="14"/>
+      <c r="A289" s="13"/>
       <c r="B289" s="5" t="s">
         <v>256</v>
       </c>
@@ -7380,12 +7829,14 @@
         <v>100</v>
       </c>
       <c r="F289" s="5"/>
-      <c r="G289" s="6"/>
+      <c r="G289" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
     </row>
     <row r="290" spans="1:9">
-      <c r="A290" s="14"/>
+      <c r="A290" s="13"/>
       <c r="B290" s="5" t="s">
         <v>257</v>
       </c>
@@ -7399,12 +7850,14 @@
         <v>6</v>
       </c>
       <c r="F290" s="5"/>
-      <c r="G290" s="6"/>
+      <c r="G290" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
     </row>
     <row r="291" spans="1:9">
-      <c r="A291" s="14"/>
+      <c r="A291" s="13"/>
       <c r="B291" s="5" t="s">
         <v>258</v>
       </c>
@@ -7416,12 +7869,14 @@
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
-      <c r="G291" s="6"/>
+      <c r="G291" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
     </row>
     <row r="292" spans="1:9">
-      <c r="A292" s="14"/>
+      <c r="A292" s="13"/>
       <c r="B292" s="5" t="s">
         <v>259</v>
       </c>
@@ -7435,12 +7890,14 @@
         <v>6</v>
       </c>
       <c r="F292" s="5"/>
-      <c r="G292" s="6"/>
+      <c r="G292" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
     </row>
     <row r="293" spans="1:9">
-      <c r="A293" s="14"/>
+      <c r="A293" s="13"/>
       <c r="B293" s="5" t="s">
         <v>260</v>
       </c>
@@ -7452,12 +7909,14 @@
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
-      <c r="G293" s="6"/>
+      <c r="G293" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
     </row>
     <row r="294" spans="1:9">
-      <c r="A294" s="14"/>
+      <c r="A294" s="13"/>
       <c r="B294" s="5" t="s">
         <v>261</v>
       </c>
@@ -7471,12 +7930,14 @@
         <v>1</v>
       </c>
       <c r="F294" s="5"/>
-      <c r="G294" s="6"/>
+      <c r="G294" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="14"/>
+      <c r="A295" s="13"/>
       <c r="B295" s="5" t="s">
         <v>262</v>
       </c>
@@ -7490,12 +7951,14 @@
         <v>3</v>
       </c>
       <c r="F295" s="5"/>
-      <c r="G295" s="6"/>
+      <c r="G295" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="14"/>
+      <c r="A296" s="13"/>
       <c r="B296" s="5" t="s">
         <v>263</v>
       </c>
@@ -7509,12 +7972,14 @@
         <v>6</v>
       </c>
       <c r="F296" s="5"/>
-      <c r="G296" s="6"/>
+      <c r="G296" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="14"/>
+      <c r="A297" s="13"/>
       <c r="B297" s="5" t="s">
         <v>264</v>
       </c>
@@ -7528,12 +7993,14 @@
         <v>2</v>
       </c>
       <c r="F297" s="5"/>
-      <c r="G297" s="6"/>
+      <c r="G297" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" s="14"/>
+      <c r="A298" s="13"/>
       <c r="B298" s="5" t="s">
         <v>265</v>
       </c>
@@ -7547,12 +8014,14 @@
         <v>500</v>
       </c>
       <c r="F298" s="5"/>
-      <c r="G298" s="6"/>
+      <c r="G298" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" s="14"/>
+      <c r="A299" s="13"/>
       <c r="B299" s="5" t="s">
         <v>206</v>
       </c>
@@ -7566,12 +8035,14 @@
         <v>3</v>
       </c>
       <c r="F299" s="5"/>
-      <c r="G299" s="6"/>
+      <c r="G299" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="14"/>
+      <c r="A300" s="13"/>
       <c r="B300" s="5" t="s">
         <v>207</v>
       </c>
@@ -7585,12 +8056,14 @@
         <v>6</v>
       </c>
       <c r="F300" s="5"/>
-      <c r="G300" s="6"/>
+      <c r="G300" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="14"/>
+      <c r="A301" s="13"/>
       <c r="B301" s="5" t="s">
         <v>141</v>
       </c>
@@ -7604,12 +8077,14 @@
         <v>11</v>
       </c>
       <c r="F301" s="5"/>
-      <c r="G301" s="6"/>
+      <c r="G301" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="14"/>
+      <c r="A302" s="13"/>
       <c r="B302" s="5" t="s">
         <v>266</v>
       </c>
@@ -7623,12 +8098,14 @@
         <v>4</v>
       </c>
       <c r="F302" s="5"/>
-      <c r="G302" s="6"/>
+      <c r="G302" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="14"/>
+      <c r="A303" s="13"/>
       <c r="B303" s="5" t="s">
         <v>267</v>
       </c>
@@ -7642,12 +8119,14 @@
         <v>10</v>
       </c>
       <c r="F303" s="5"/>
-      <c r="G303" s="6"/>
+      <c r="G303" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
     </row>
     <row r="304" spans="1:9">
-      <c r="A304" s="14"/>
+      <c r="A304" s="13"/>
       <c r="B304" s="5" t="s">
         <v>268</v>
       </c>
@@ -7661,12 +8140,14 @@
         <v>6</v>
       </c>
       <c r="F304" s="5"/>
-      <c r="G304" s="6"/>
+      <c r="G304" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
     </row>
     <row r="305" spans="1:9">
-      <c r="A305" s="14"/>
+      <c r="A305" s="13"/>
       <c r="B305" s="5" t="s">
         <v>269</v>
       </c>
@@ -7678,12 +8159,14 @@
       </c>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
-      <c r="G305" s="6"/>
+      <c r="G305" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
     </row>
     <row r="306" spans="1:9">
-      <c r="A306" s="14"/>
+      <c r="A306" s="13"/>
       <c r="B306" s="5" t="s">
         <v>270</v>
       </c>
@@ -7697,12 +8180,14 @@
         <v>100</v>
       </c>
       <c r="F306" s="5"/>
-      <c r="G306" s="6"/>
+      <c r="G306" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="14"/>
+      <c r="A307" s="13"/>
       <c r="B307" s="5" t="s">
         <v>271</v>
       </c>
@@ -7716,12 +8201,14 @@
       <c r="F307" s="5">
         <v>10</v>
       </c>
-      <c r="G307" s="6"/>
+      <c r="G307" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
     </row>
     <row r="308" spans="1:9">
-      <c r="A308" s="14"/>
+      <c r="A308" s="13"/>
       <c r="B308" s="5" t="s">
         <v>272</v>
       </c>
@@ -7735,12 +8222,14 @@
       <c r="F308" s="5">
         <v>10</v>
       </c>
-      <c r="G308" s="6"/>
+      <c r="G308" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
     </row>
     <row r="309" spans="1:9">
-      <c r="A309" s="14"/>
+      <c r="A309" s="13"/>
       <c r="B309" s="5" t="s">
         <v>218</v>
       </c>
@@ -7754,12 +8243,14 @@
       <c r="F309" s="5">
         <v>10</v>
       </c>
-      <c r="G309" s="6"/>
+      <c r="G309" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
     </row>
     <row r="310" spans="1:9">
-      <c r="A310" s="14"/>
+      <c r="A310" s="13"/>
       <c r="B310" s="5" t="s">
         <v>273</v>
       </c>
@@ -7773,12 +8264,14 @@
         <v>2</v>
       </c>
       <c r="F310" s="5"/>
-      <c r="G310" s="6"/>
+      <c r="G310" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
     </row>
     <row r="311" spans="1:9">
-      <c r="A311" s="14"/>
+      <c r="A311" s="13"/>
       <c r="B311" s="5" t="s">
         <v>221</v>
       </c>
@@ -7792,12 +8285,14 @@
       <c r="F311" s="5">
         <v>16</v>
       </c>
-      <c r="G311" s="6"/>
+      <c r="G311" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
     </row>
     <row r="312" spans="1:9">
-      <c r="A312" s="14"/>
+      <c r="A312" s="13"/>
       <c r="B312" s="5" t="s">
         <v>274</v>
       </c>
@@ -7811,12 +8306,14 @@
       <c r="F312" s="5">
         <v>16</v>
       </c>
-      <c r="G312" s="6"/>
+      <c r="G312" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="14"/>
+      <c r="A313" s="13"/>
       <c r="B313" s="5" t="s">
         <v>275</v>
       </c>
@@ -7830,12 +8327,14 @@
       <c r="F313" s="5">
         <v>16</v>
       </c>
-      <c r="G313" s="6"/>
+      <c r="G313" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
     </row>
     <row r="314" spans="1:9">
-      <c r="A314" s="14"/>
+      <c r="A314" s="13"/>
       <c r="B314" s="5" t="s">
         <v>215</v>
       </c>
@@ -7849,12 +8348,14 @@
       <c r="F314" s="5">
         <v>16</v>
       </c>
-      <c r="G314" s="6"/>
+      <c r="G314" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
     </row>
     <row r="315" spans="1:9">
-      <c r="A315" s="14"/>
+      <c r="A315" s="13"/>
       <c r="B315" s="5" t="s">
         <v>276</v>
       </c>
@@ -7868,12 +8369,14 @@
       <c r="F315" s="5">
         <v>16</v>
       </c>
-      <c r="G315" s="6"/>
+      <c r="G315" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
     </row>
     <row r="316" spans="1:9">
-      <c r="A316" s="14"/>
+      <c r="A316" s="13"/>
       <c r="B316" s="5" t="s">
         <v>277</v>
       </c>
@@ -7887,12 +8390,14 @@
       <c r="F316" s="5">
         <v>15</v>
       </c>
-      <c r="G316" s="6"/>
+      <c r="G316" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
     </row>
     <row r="317" spans="1:9">
-      <c r="A317" s="14"/>
+      <c r="A317" s="13"/>
       <c r="B317" s="5" t="s">
         <v>278</v>
       </c>
@@ -7906,12 +8411,14 @@
       <c r="F317" s="5">
         <v>15</v>
       </c>
-      <c r="G317" s="6"/>
+      <c r="G317" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" s="14"/>
+      <c r="A318" s="13"/>
       <c r="B318" s="5" t="s">
         <v>279</v>
       </c>
@@ -7925,12 +8432,14 @@
       <c r="F318" s="5">
         <v>15</v>
       </c>
-      <c r="G318" s="6"/>
+      <c r="G318" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
     </row>
     <row r="319" spans="1:9">
-      <c r="A319" s="14"/>
+      <c r="A319" s="13"/>
       <c r="B319" s="5" t="s">
         <v>280</v>
       </c>
@@ -7944,12 +8453,14 @@
       <c r="F319" s="5">
         <v>15</v>
       </c>
-      <c r="G319" s="6"/>
+      <c r="G319" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
     </row>
     <row r="320" spans="1:9">
-      <c r="A320" s="14"/>
+      <c r="A320" s="13"/>
       <c r="B320" s="5" t="s">
         <v>100</v>
       </c>
@@ -7963,12 +8474,14 @@
       <c r="F320" s="5">
         <v>15</v>
       </c>
-      <c r="G320" s="6"/>
+      <c r="G320" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="14"/>
+      <c r="A321" s="13"/>
       <c r="B321" s="5" t="s">
         <v>281</v>
       </c>
@@ -7982,12 +8495,14 @@
       <c r="F321" s="5">
         <v>9</v>
       </c>
-      <c r="G321" s="6"/>
+      <c r="G321" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="14"/>
+      <c r="A322" s="13"/>
       <c r="B322" s="5" t="s">
         <v>282</v>
       </c>
@@ -8001,12 +8516,14 @@
       <c r="F322" s="5">
         <v>16</v>
       </c>
-      <c r="G322" s="6"/>
+      <c r="G322" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
     </row>
     <row r="323" spans="1:9">
-      <c r="A323" s="14"/>
+      <c r="A323" s="13"/>
       <c r="B323" s="5" t="s">
         <v>283</v>
       </c>
@@ -8020,12 +8537,14 @@
       <c r="F323" s="5">
         <v>9</v>
       </c>
-      <c r="G323" s="6"/>
+      <c r="G323" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
     </row>
     <row r="324" spans="1:9">
-      <c r="A324" s="14"/>
+      <c r="A324" s="13"/>
       <c r="B324" s="5" t="s">
         <v>284</v>
       </c>
@@ -8039,12 +8558,14 @@
       <c r="F324" s="5">
         <v>15</v>
       </c>
-      <c r="G324" s="6"/>
+      <c r="G324" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
     </row>
     <row r="325" spans="1:9">
-      <c r="A325" s="14"/>
+      <c r="A325" s="13"/>
       <c r="B325" s="5" t="s">
         <v>285</v>
       </c>
@@ -8058,12 +8579,14 @@
       <c r="F325" s="5">
         <v>15</v>
       </c>
-      <c r="G325" s="6"/>
+      <c r="G325" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="14"/>
+      <c r="A326" s="13"/>
       <c r="B326" s="5" t="s">
         <v>286</v>
       </c>
@@ -8077,12 +8600,14 @@
       <c r="F326" s="5">
         <v>15</v>
       </c>
-      <c r="G326" s="6"/>
+      <c r="G326" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
     </row>
     <row r="327" spans="1:9">
-      <c r="A327" s="14"/>
+      <c r="A327" s="13"/>
       <c r="B327" s="5" t="s">
         <v>287</v>
       </c>
@@ -8096,12 +8621,14 @@
       <c r="F327" s="5">
         <v>15</v>
       </c>
-      <c r="G327" s="6"/>
+      <c r="G327" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
     </row>
     <row r="328" spans="1:9">
-      <c r="A328" s="14"/>
+      <c r="A328" s="13"/>
       <c r="B328" s="5" t="s">
         <v>288</v>
       </c>
@@ -8115,12 +8642,14 @@
       <c r="F328" s="5">
         <v>15</v>
       </c>
-      <c r="G328" s="6"/>
+      <c r="G328" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
     </row>
     <row r="329" spans="1:9">
-      <c r="A329" s="14"/>
+      <c r="A329" s="13"/>
       <c r="B329" s="5" t="s">
         <v>289</v>
       </c>
@@ -8134,12 +8663,14 @@
       <c r="F329" s="5">
         <v>10</v>
       </c>
-      <c r="G329" s="6"/>
+      <c r="G329" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
     </row>
     <row r="330" spans="1:9">
-      <c r="A330" s="14"/>
+      <c r="A330" s="13"/>
       <c r="B330" s="5" t="s">
         <v>290</v>
       </c>
@@ -8153,12 +8684,14 @@
       <c r="F330" s="5">
         <v>16</v>
       </c>
-      <c r="G330" s="6"/>
+      <c r="G330" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
     </row>
     <row r="331" spans="1:9">
-      <c r="A331" s="14"/>
+      <c r="A331" s="13"/>
       <c r="B331" s="5" t="s">
         <v>291</v>
       </c>
@@ -8172,12 +8705,14 @@
       <c r="F331" s="5">
         <v>16</v>
       </c>
-      <c r="G331" s="6"/>
+      <c r="G331" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
     </row>
     <row r="332" spans="1:9">
-      <c r="A332" s="14"/>
+      <c r="A332" s="13"/>
       <c r="B332" s="5" t="s">
         <v>292</v>
       </c>
@@ -8191,12 +8726,14 @@
       <c r="F332" s="5">
         <v>16</v>
       </c>
-      <c r="G332" s="6"/>
+      <c r="G332" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
     </row>
     <row r="333" spans="1:9">
-      <c r="A333" s="14"/>
+      <c r="A333" s="13"/>
       <c r="B333" s="5" t="s">
         <v>293</v>
       </c>
@@ -8210,12 +8747,14 @@
       <c r="F333" s="5">
         <v>15</v>
       </c>
-      <c r="G333" s="6"/>
+      <c r="G333" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
     </row>
     <row r="334" spans="1:9">
-      <c r="A334" s="14"/>
+      <c r="A334" s="13"/>
       <c r="B334" s="5" t="s">
         <v>294</v>
       </c>
@@ -8229,12 +8768,14 @@
       <c r="F334" s="5">
         <v>16</v>
       </c>
-      <c r="G334" s="6"/>
+      <c r="G334" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" s="14"/>
+      <c r="A335" s="13"/>
       <c r="B335" s="5" t="s">
         <v>295</v>
       </c>
@@ -8248,12 +8789,14 @@
       <c r="F335" s="5">
         <v>16</v>
       </c>
-      <c r="G335" s="6"/>
+      <c r="G335" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
     </row>
     <row r="336" spans="1:9">
-      <c r="A336" s="14"/>
+      <c r="A336" s="13"/>
       <c r="B336" s="5" t="s">
         <v>296</v>
       </c>
@@ -8267,12 +8810,14 @@
       <c r="F336" s="5">
         <v>16</v>
       </c>
-      <c r="G336" s="6"/>
+      <c r="G336" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="13" t="s">
         <v>355</v>
       </c>
       <c r="B337" s="5" t="s">
@@ -8288,12 +8833,14 @@
         <v>6</v>
       </c>
       <c r="F337" s="5"/>
-      <c r="G337" s="6"/>
+      <c r="G337" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
     </row>
     <row r="338" spans="1:9">
-      <c r="A338" s="14"/>
+      <c r="A338" s="13"/>
       <c r="B338" s="5" t="s">
         <v>18</v>
       </c>
@@ -8307,12 +8854,14 @@
         <v>20</v>
       </c>
       <c r="F338" s="5"/>
-      <c r="G338" s="6"/>
+      <c r="G338" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
     </row>
     <row r="339" spans="1:9">
-      <c r="A339" s="14"/>
+      <c r="A339" s="13"/>
       <c r="B339" s="5" t="s">
         <v>299</v>
       </c>
@@ -8326,12 +8875,14 @@
         <v>2</v>
       </c>
       <c r="F339" s="5"/>
-      <c r="G339" s="6"/>
+      <c r="G339" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
     </row>
     <row r="340" spans="1:9">
-      <c r="A340" s="14"/>
+      <c r="A340" s="13"/>
       <c r="B340" s="5" t="s">
         <v>300</v>
       </c>
@@ -8345,12 +8896,14 @@
         <v>2</v>
       </c>
       <c r="F340" s="5"/>
-      <c r="G340" s="6"/>
+      <c r="G340" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
     </row>
     <row r="341" spans="1:9">
-      <c r="A341" s="14"/>
+      <c r="A341" s="13"/>
       <c r="B341" s="5" t="s">
         <v>301</v>
       </c>
@@ -8364,12 +8917,14 @@
         <v>4</v>
       </c>
       <c r="F341" s="5"/>
-      <c r="G341" s="6"/>
+      <c r="G341" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
     </row>
     <row r="342" spans="1:9">
-      <c r="A342" s="14"/>
+      <c r="A342" s="13"/>
       <c r="B342" s="5" t="s">
         <v>302</v>
       </c>
@@ -8383,12 +8938,14 @@
         <v>4</v>
       </c>
       <c r="F342" s="5"/>
-      <c r="G342" s="6"/>
+      <c r="G342" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
     </row>
     <row r="343" spans="1:9">
-      <c r="A343" s="14"/>
+      <c r="A343" s="13"/>
       <c r="B343" s="5" t="s">
         <v>303</v>
       </c>
@@ -8402,12 +8959,14 @@
         <v>2</v>
       </c>
       <c r="F343" s="5"/>
-      <c r="G343" s="6"/>
+      <c r="G343" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
     </row>
     <row r="344" spans="1:9">
-      <c r="A344" s="14"/>
+      <c r="A344" s="13"/>
       <c r="B344" s="5" t="s">
         <v>304</v>
       </c>
@@ -8421,12 +8980,14 @@
         <v>100</v>
       </c>
       <c r="F344" s="5"/>
-      <c r="G344" s="6"/>
+      <c r="G344" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
     </row>
     <row r="345" spans="1:9">
-      <c r="A345" s="14"/>
+      <c r="A345" s="13"/>
       <c r="B345" s="5" t="s">
         <v>305</v>
       </c>
@@ -8440,12 +9001,14 @@
         <v>20</v>
       </c>
       <c r="F345" s="5"/>
-      <c r="G345" s="6"/>
+      <c r="G345" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
     </row>
     <row r="346" spans="1:9">
-      <c r="A346" s="14"/>
+      <c r="A346" s="13"/>
       <c r="B346" s="5" t="s">
         <v>306</v>
       </c>
@@ -8459,12 +9022,14 @@
         <v>20</v>
       </c>
       <c r="F346" s="5"/>
-      <c r="G346" s="6"/>
+      <c r="G346" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
     </row>
     <row r="347" spans="1:9">
-      <c r="A347" s="14"/>
+      <c r="A347" s="13"/>
       <c r="B347" s="5" t="s">
         <v>307</v>
       </c>
@@ -8478,12 +9043,14 @@
         <v>60</v>
       </c>
       <c r="F347" s="5"/>
-      <c r="G347" s="6"/>
+      <c r="G347" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
     </row>
     <row r="348" spans="1:9">
-      <c r="A348" s="14"/>
+      <c r="A348" s="13"/>
       <c r="B348" s="5" t="s">
         <v>10</v>
       </c>
@@ -8497,12 +9064,14 @@
         <v>150</v>
       </c>
       <c r="F348" s="5"/>
-      <c r="G348" s="6"/>
+      <c r="G348" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
     </row>
     <row r="349" spans="1:9">
-      <c r="A349" s="14"/>
+      <c r="A349" s="13"/>
       <c r="B349" s="5" t="s">
         <v>11</v>
       </c>
@@ -8516,12 +9085,14 @@
         <v>6</v>
       </c>
       <c r="F349" s="5"/>
-      <c r="G349" s="6"/>
+      <c r="G349" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
     </row>
     <row r="350" spans="1:9">
-      <c r="A350" s="14"/>
+      <c r="A350" s="13"/>
       <c r="B350" s="5" t="s">
         <v>308</v>
       </c>
@@ -8535,12 +9106,14 @@
         <v>6</v>
       </c>
       <c r="F350" s="5"/>
-      <c r="G350" s="6"/>
+      <c r="G350" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
     </row>
     <row r="351" spans="1:9">
-      <c r="A351" s="14"/>
+      <c r="A351" s="13"/>
       <c r="B351" s="5" t="s">
         <v>309</v>
       </c>
@@ -8552,12 +9125,14 @@
       </c>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
-      <c r="G351" s="6"/>
+      <c r="G351" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
     </row>
     <row r="352" spans="1:9">
-      <c r="A352" s="14"/>
+      <c r="A352" s="13"/>
       <c r="B352" s="5" t="s">
         <v>310</v>
       </c>
@@ -8571,12 +9146,14 @@
         <v>2</v>
       </c>
       <c r="F352" s="5"/>
-      <c r="G352" s="6"/>
+      <c r="G352" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
     </row>
     <row r="353" spans="1:9">
-      <c r="A353" s="14"/>
+      <c r="A353" s="13"/>
       <c r="B353" s="5" t="s">
         <v>197</v>
       </c>
@@ -8590,12 +9167,14 @@
         <v>8</v>
       </c>
       <c r="F353" s="5"/>
-      <c r="G353" s="6"/>
+      <c r="G353" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
     </row>
     <row r="354" spans="1:9">
-      <c r="A354" s="14"/>
+      <c r="A354" s="13"/>
       <c r="B354" s="5" t="s">
         <v>311</v>
       </c>
@@ -8609,12 +9188,14 @@
         <v>20</v>
       </c>
       <c r="F354" s="5"/>
-      <c r="G354" s="6"/>
+      <c r="G354" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
     </row>
     <row r="355" spans="1:9">
-      <c r="A355" s="14"/>
+      <c r="A355" s="13"/>
       <c r="B355" s="5" t="s">
         <v>312</v>
       </c>
@@ -8628,12 +9209,14 @@
         <v>20</v>
       </c>
       <c r="F355" s="5"/>
-      <c r="G355" s="6"/>
+      <c r="G355" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
     </row>
     <row r="356" spans="1:9">
-      <c r="A356" s="14"/>
+      <c r="A356" s="13"/>
       <c r="B356" s="5" t="s">
         <v>313</v>
       </c>
@@ -8647,12 +9230,14 @@
         <v>20</v>
       </c>
       <c r="F356" s="5"/>
-      <c r="G356" s="6"/>
+      <c r="G356" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
     </row>
     <row r="357" spans="1:9">
-      <c r="A357" s="14"/>
+      <c r="A357" s="13"/>
       <c r="B357" s="5" t="s">
         <v>314</v>
       </c>
@@ -8666,12 +9251,14 @@
         <v>20</v>
       </c>
       <c r="F357" s="5"/>
-      <c r="G357" s="6"/>
+      <c r="G357" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
     </row>
     <row r="358" spans="1:9">
-      <c r="A358" s="14"/>
+      <c r="A358" s="13"/>
       <c r="B358" s="5" t="s">
         <v>315</v>
       </c>
@@ -8685,12 +9272,14 @@
         <v>20</v>
       </c>
       <c r="F358" s="5"/>
-      <c r="G358" s="6"/>
+      <c r="G358" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
     </row>
     <row r="359" spans="1:9">
-      <c r="A359" s="14"/>
+      <c r="A359" s="13"/>
       <c r="B359" s="5" t="s">
         <v>13</v>
       </c>
@@ -8704,12 +9293,14 @@
         <v>20</v>
       </c>
       <c r="F359" s="5"/>
-      <c r="G359" s="6"/>
+      <c r="G359" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
     </row>
     <row r="360" spans="1:9">
-      <c r="A360" s="14"/>
+      <c r="A360" s="13"/>
       <c r="B360" s="5" t="s">
         <v>316</v>
       </c>
@@ -8723,12 +9314,14 @@
         <v>50</v>
       </c>
       <c r="F360" s="5"/>
-      <c r="G360" s="6"/>
+      <c r="G360" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
     </row>
     <row r="361" spans="1:9">
-      <c r="A361" s="14"/>
+      <c r="A361" s="13"/>
       <c r="B361" s="5" t="s">
         <v>317</v>
       </c>
@@ -8742,12 +9335,14 @@
         <v>2</v>
       </c>
       <c r="F361" s="5"/>
-      <c r="G361" s="6"/>
+      <c r="G361" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
     </row>
     <row r="362" spans="1:9">
-      <c r="A362" s="14"/>
+      <c r="A362" s="13"/>
       <c r="B362" s="5" t="s">
         <v>318</v>
       </c>
@@ -8761,12 +9356,14 @@
         <v>60</v>
       </c>
       <c r="F362" s="5"/>
-      <c r="G362" s="6"/>
+      <c r="G362" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
     </row>
     <row r="363" spans="1:9">
-      <c r="A363" s="14"/>
+      <c r="A363" s="13"/>
       <c r="B363" s="5" t="s">
         <v>319</v>
       </c>
@@ -8780,12 +9377,14 @@
         <v>20</v>
       </c>
       <c r="F363" s="5"/>
-      <c r="G363" s="6"/>
+      <c r="G363" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
     </row>
     <row r="364" spans="1:9">
-      <c r="A364" s="14"/>
+      <c r="A364" s="13"/>
       <c r="B364" s="5" t="s">
         <v>320</v>
       </c>
@@ -8799,12 +9398,14 @@
         <v>6</v>
       </c>
       <c r="F364" s="5"/>
-      <c r="G364" s="6"/>
+      <c r="G364" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
     </row>
     <row r="365" spans="1:9">
-      <c r="A365" s="14"/>
+      <c r="A365" s="13"/>
       <c r="B365" s="5" t="s">
         <v>229</v>
       </c>
@@ -8816,12 +9417,14 @@
       </c>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
-      <c r="G365" s="6"/>
+      <c r="G365" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
     </row>
     <row r="366" spans="1:9">
-      <c r="A366" s="14"/>
+      <c r="A366" s="13"/>
       <c r="B366" s="5" t="s">
         <v>22</v>
       </c>
@@ -8835,12 +9438,14 @@
         <v>6</v>
       </c>
       <c r="F366" s="5"/>
-      <c r="G366" s="6"/>
+      <c r="G366" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
     </row>
     <row r="367" spans="1:9">
-      <c r="A367" s="14"/>
+      <c r="A367" s="13"/>
       <c r="B367" s="5" t="s">
         <v>23</v>
       </c>
@@ -8852,12 +9457,14 @@
       </c>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
-      <c r="G367" s="6"/>
+      <c r="G367" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
     </row>
     <row r="368" spans="1:9">
-      <c r="A368" s="14"/>
+      <c r="A368" s="13"/>
       <c r="B368" s="5" t="s">
         <v>321</v>
       </c>
@@ -8869,12 +9476,14 @@
       </c>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
-      <c r="G368" s="6"/>
+      <c r="G368" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
     </row>
     <row r="369" spans="1:9">
-      <c r="A369" s="14"/>
+      <c r="A369" s="13"/>
       <c r="B369" s="5" t="s">
         <v>322</v>
       </c>
@@ -8888,12 +9497,14 @@
         <v>30</v>
       </c>
       <c r="F369" s="5"/>
-      <c r="G369" s="6"/>
+      <c r="G369" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
     </row>
     <row r="370" spans="1:9">
-      <c r="A370" s="14"/>
+      <c r="A370" s="13"/>
       <c r="B370" s="5" t="s">
         <v>65</v>
       </c>
@@ -8907,12 +9518,14 @@
         <v>11</v>
       </c>
       <c r="F370" s="5"/>
-      <c r="G370" s="6"/>
+      <c r="G370" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
     </row>
     <row r="371" spans="1:9">
-      <c r="A371" s="14"/>
+      <c r="A371" s="13"/>
       <c r="B371" s="5" t="s">
         <v>81</v>
       </c>
@@ -8926,12 +9539,14 @@
         <v>10</v>
       </c>
       <c r="F371" s="5"/>
-      <c r="G371" s="6"/>
+      <c r="G371" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
     </row>
     <row r="372" spans="1:9">
-      <c r="A372" s="14"/>
+      <c r="A372" s="13"/>
       <c r="B372" s="5" t="s">
         <v>323</v>
       </c>
@@ -8945,12 +9560,14 @@
       <c r="F372" s="5">
         <v>5</v>
       </c>
-      <c r="G372" s="6"/>
+      <c r="G372" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
     </row>
     <row r="373" spans="1:9">
-      <c r="A373" s="14"/>
+      <c r="A373" s="13"/>
       <c r="B373" s="5" t="s">
         <v>324</v>
       </c>
@@ -8964,12 +9581,14 @@
       <c r="F373" s="5">
         <v>5</v>
       </c>
-      <c r="G373" s="6"/>
+      <c r="G373" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
     </row>
     <row r="374" spans="1:9">
-      <c r="A374" s="14"/>
+      <c r="A374" s="13"/>
       <c r="B374" s="5" t="s">
         <v>325</v>
       </c>
@@ -8983,12 +9602,14 @@
       <c r="F374" s="5">
         <v>5</v>
       </c>
-      <c r="G374" s="6"/>
+      <c r="G374" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
     </row>
     <row r="375" spans="1:9">
-      <c r="A375" s="14"/>
+      <c r="A375" s="13"/>
       <c r="B375" s="5" t="s">
         <v>326</v>
       </c>
@@ -9002,12 +9623,14 @@
       <c r="F375" s="5">
         <v>5</v>
       </c>
-      <c r="G375" s="6"/>
+      <c r="G375" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
     </row>
     <row r="376" spans="1:9">
-      <c r="A376" s="14"/>
+      <c r="A376" s="13"/>
       <c r="B376" s="5" t="s">
         <v>327</v>
       </c>
@@ -9021,12 +9644,14 @@
         <v>1</v>
       </c>
       <c r="F376" s="5"/>
-      <c r="G376" s="6"/>
+      <c r="G376" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
     </row>
     <row r="377" spans="1:9">
-      <c r="A377" s="14"/>
+      <c r="A377" s="13"/>
       <c r="B377" s="5" t="s">
         <v>328</v>
       </c>
@@ -9040,12 +9665,14 @@
         <v>250</v>
       </c>
       <c r="F377" s="5"/>
-      <c r="G377" s="6"/>
+      <c r="G377" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
     </row>
     <row r="378" spans="1:9">
-      <c r="A378" s="14"/>
+      <c r="A378" s="13"/>
       <c r="B378" s="5" t="s">
         <v>128</v>
       </c>
@@ -9059,12 +9686,14 @@
         <v>60</v>
       </c>
       <c r="F378" s="5"/>
-      <c r="G378" s="6"/>
+      <c r="G378" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
     </row>
     <row r="379" spans="1:9">
-      <c r="A379" s="14"/>
+      <c r="A379" s="13"/>
       <c r="B379" s="5" t="s">
         <v>329</v>
       </c>
@@ -9078,12 +9707,14 @@
         <v>60</v>
       </c>
       <c r="F379" s="5"/>
-      <c r="G379" s="6"/>
+      <c r="G379" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
     </row>
     <row r="380" spans="1:9">
-      <c r="A380" s="14"/>
+      <c r="A380" s="13"/>
       <c r="B380" s="5" t="s">
         <v>330</v>
       </c>
@@ -9097,12 +9728,14 @@
         <v>20</v>
       </c>
       <c r="F380" s="5"/>
-      <c r="G380" s="6"/>
+      <c r="G380" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
     </row>
     <row r="381" spans="1:9">
-      <c r="A381" s="14"/>
+      <c r="A381" s="13"/>
       <c r="B381" s="5" t="s">
         <v>331</v>
       </c>
@@ -9116,12 +9749,14 @@
         <v>20</v>
       </c>
       <c r="F381" s="5"/>
-      <c r="G381" s="6"/>
+      <c r="G381" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
     </row>
     <row r="382" spans="1:9">
-      <c r="A382" s="14"/>
+      <c r="A382" s="13"/>
       <c r="B382" s="5" t="s">
         <v>332</v>
       </c>
@@ -9135,12 +9770,14 @@
         <v>20</v>
       </c>
       <c r="F382" s="5"/>
-      <c r="G382" s="6"/>
+      <c r="G382" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
     </row>
     <row r="383" spans="1:9">
-      <c r="A383" s="14"/>
+      <c r="A383" s="13"/>
       <c r="B383" s="5" t="s">
         <v>333</v>
       </c>
@@ -9154,12 +9791,14 @@
         <v>6</v>
       </c>
       <c r="F383" s="5"/>
-      <c r="G383" s="6"/>
+      <c r="G383" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
     </row>
     <row r="384" spans="1:9">
-      <c r="A384" s="14"/>
+      <c r="A384" s="13"/>
       <c r="B384" s="5" t="s">
         <v>334</v>
       </c>
@@ -9173,12 +9812,14 @@
         <v>6</v>
       </c>
       <c r="F384" s="5"/>
-      <c r="G384" s="6"/>
+      <c r="G384" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
     </row>
     <row r="385" spans="1:9">
-      <c r="A385" s="14"/>
+      <c r="A385" s="13"/>
       <c r="B385" s="5" t="s">
         <v>335</v>
       </c>
@@ -9192,12 +9833,14 @@
         <v>1</v>
       </c>
       <c r="F385" s="5"/>
-      <c r="G385" s="6"/>
+      <c r="G385" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
     </row>
     <row r="386" spans="1:9">
-      <c r="A386" s="14"/>
+      <c r="A386" s="13"/>
       <c r="B386" s="5" t="s">
         <v>336</v>
       </c>
@@ -9211,12 +9854,14 @@
         <v>11</v>
       </c>
       <c r="F386" s="5"/>
-      <c r="G386" s="6"/>
+      <c r="G386" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
     </row>
     <row r="387" spans="1:9">
-      <c r="A387" s="14"/>
+      <c r="A387" s="13"/>
       <c r="B387" s="5" t="s">
         <v>85</v>
       </c>
@@ -9230,12 +9875,14 @@
         <v>3</v>
       </c>
       <c r="F387" s="5"/>
-      <c r="G387" s="6"/>
+      <c r="G387" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
     </row>
     <row r="388" spans="1:9">
-      <c r="A388" s="14"/>
+      <c r="A388" s="13"/>
       <c r="B388" s="5" t="s">
         <v>337</v>
       </c>
@@ -9249,12 +9896,14 @@
         <v>1</v>
       </c>
       <c r="F388" s="5"/>
-      <c r="G388" s="6"/>
+      <c r="G388" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
     </row>
     <row r="389" spans="1:9">
-      <c r="A389" s="14"/>
+      <c r="A389" s="13"/>
       <c r="B389" s="5" t="s">
         <v>108</v>
       </c>
@@ -9268,12 +9917,14 @@
       <c r="F389" s="5">
         <v>6</v>
       </c>
-      <c r="G389" s="6"/>
+      <c r="G389" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
     </row>
     <row r="390" spans="1:9">
-      <c r="A390" s="14"/>
+      <c r="A390" s="13"/>
       <c r="B390" s="5" t="s">
         <v>338</v>
       </c>
@@ -9287,12 +9938,14 @@
       <c r="F390" s="5">
         <v>5</v>
       </c>
-      <c r="G390" s="6"/>
+      <c r="G390" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
     </row>
     <row r="391" spans="1:9">
-      <c r="A391" s="14"/>
+      <c r="A391" s="13"/>
       <c r="B391" s="5" t="s">
         <v>339</v>
       </c>
@@ -9306,12 +9959,14 @@
       <c r="F391" s="5">
         <v>5</v>
       </c>
-      <c r="G391" s="6"/>
+      <c r="G391" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
     </row>
     <row r="392" spans="1:9">
-      <c r="A392" s="14" t="s">
+      <c r="A392" s="13" t="s">
         <v>356</v>
       </c>
       <c r="B392" s="5" t="s">
@@ -9327,12 +9982,14 @@
         <v>3</v>
       </c>
       <c r="F392" s="5"/>
-      <c r="G392" s="6"/>
+      <c r="G392" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
     </row>
     <row r="393" spans="1:9">
-      <c r="A393" s="14"/>
+      <c r="A393" s="13"/>
       <c r="B393" s="5" t="s">
         <v>342</v>
       </c>
@@ -9346,12 +10003,14 @@
         <v>6</v>
       </c>
       <c r="F393" s="5"/>
-      <c r="G393" s="6"/>
+      <c r="G393" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
     </row>
     <row r="394" spans="1:9">
-      <c r="A394" s="14"/>
+      <c r="A394" s="13"/>
       <c r="B394" s="5" t="s">
         <v>113</v>
       </c>
@@ -9365,12 +10024,14 @@
         <v>3</v>
       </c>
       <c r="F394" s="5"/>
-      <c r="G394" s="6"/>
+      <c r="G394" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
     </row>
     <row r="395" spans="1:9">
-      <c r="A395" s="14"/>
+      <c r="A395" s="13"/>
       <c r="B395" s="5" t="s">
         <v>114</v>
       </c>
@@ -9384,12 +10045,14 @@
         <v>7</v>
       </c>
       <c r="F395" s="5"/>
-      <c r="G395" s="6"/>
+      <c r="G395" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
     </row>
     <row r="396" spans="1:9">
-      <c r="A396" s="14"/>
+      <c r="A396" s="13"/>
       <c r="B396" s="5" t="s">
         <v>102</v>
       </c>
@@ -9403,12 +10066,14 @@
       <c r="F396" s="5">
         <v>32</v>
       </c>
-      <c r="G396" s="6"/>
+      <c r="G396" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
     </row>
     <row r="397" spans="1:9">
-      <c r="A397" s="14"/>
+      <c r="A397" s="13"/>
       <c r="B397" s="5" t="s">
         <v>103</v>
       </c>
@@ -9422,12 +10087,14 @@
       <c r="F397" s="5">
         <v>32</v>
       </c>
-      <c r="G397" s="6"/>
+      <c r="G397" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
     </row>
     <row r="398" spans="1:9">
-      <c r="A398" s="14"/>
+      <c r="A398" s="13"/>
       <c r="B398" s="5" t="s">
         <v>18</v>
       </c>
@@ -9441,12 +10108,14 @@
         <v>6</v>
       </c>
       <c r="F398" s="5"/>
-      <c r="G398" s="6"/>
+      <c r="G398" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
     </row>
     <row r="399" spans="1:9">
-      <c r="A399" s="14"/>
+      <c r="A399" s="13"/>
       <c r="B399" s="5" t="s">
         <v>19</v>
       </c>
@@ -9458,12 +10127,14 @@
       </c>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
-      <c r="G399" s="6"/>
+      <c r="G399" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
     </row>
     <row r="400" spans="1:9">
-      <c r="A400" s="14"/>
+      <c r="A400" s="13"/>
       <c r="B400" s="5" t="s">
         <v>17</v>
       </c>
@@ -9477,12 +10148,14 @@
         <v>100</v>
       </c>
       <c r="F400" s="5"/>
-      <c r="G400" s="6"/>
+      <c r="G400" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
     </row>
     <row r="401" spans="1:9">
-      <c r="A401" s="14"/>
+      <c r="A401" s="13"/>
       <c r="B401" s="5" t="s">
         <v>343</v>
       </c>
@@ -9496,12 +10169,14 @@
         <v>40</v>
       </c>
       <c r="F401" s="5"/>
-      <c r="G401" s="6"/>
+      <c r="G401" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
     </row>
     <row r="402" spans="1:9">
-      <c r="A402" s="14"/>
+      <c r="A402" s="13"/>
       <c r="B402" s="5" t="s">
         <v>344</v>
       </c>
@@ -9515,12 +10190,14 @@
       <c r="F402" s="5">
         <v>32</v>
       </c>
-      <c r="G402" s="6"/>
+      <c r="G402" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
     </row>
     <row r="403" spans="1:9">
-      <c r="A403" s="14"/>
+      <c r="A403" s="13"/>
       <c r="B403" s="5" t="s">
         <v>345</v>
       </c>
@@ -9534,12 +10211,14 @@
       <c r="F403" s="5">
         <v>32</v>
       </c>
-      <c r="G403" s="6"/>
+      <c r="G403" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
     </row>
     <row r="404" spans="1:9">
-      <c r="A404" s="14"/>
+      <c r="A404" s="13"/>
       <c r="B404" s="5" t="s">
         <v>119</v>
       </c>
@@ -9553,12 +10232,14 @@
       <c r="F404" s="5">
         <v>16</v>
       </c>
-      <c r="G404" s="6"/>
+      <c r="G404" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
     </row>
     <row r="405" spans="1:9">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="13" t="s">
         <v>357</v>
       </c>
       <c r="B405" s="5" t="s">
@@ -9574,12 +10255,14 @@
         <v>4</v>
       </c>
       <c r="F405" s="5"/>
-      <c r="G405" s="6"/>
+      <c r="G405" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
     </row>
     <row r="406" spans="1:9">
-      <c r="A406" s="14"/>
+      <c r="A406" s="13"/>
       <c r="B406" s="5" t="s">
         <v>347</v>
       </c>
@@ -9593,12 +10276,14 @@
         <v>100</v>
       </c>
       <c r="F406" s="5"/>
-      <c r="G406" s="6"/>
+      <c r="G406" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
     </row>
     <row r="407" spans="1:9">
-      <c r="A407" s="14"/>
+      <c r="A407" s="13"/>
       <c r="B407" s="5" t="s">
         <v>225</v>
       </c>
@@ -9612,12 +10297,14 @@
         <v>2</v>
       </c>
       <c r="F407" s="5"/>
-      <c r="G407" s="6"/>
+      <c r="G407" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
     </row>
     <row r="408" spans="1:9">
-      <c r="A408" s="14"/>
+      <c r="A408" s="13"/>
       <c r="B408" s="5" t="s">
         <v>224</v>
       </c>
@@ -9631,12 +10318,14 @@
         <v>2</v>
       </c>
       <c r="F408" s="5"/>
-      <c r="G408" s="6"/>
+      <c r="G408" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
     </row>
     <row r="409" spans="1:9">
-      <c r="A409" s="14"/>
+      <c r="A409" s="13"/>
       <c r="B409" s="5" t="s">
         <v>18</v>
       </c>
@@ -9650,12 +10339,14 @@
         <v>6</v>
       </c>
       <c r="F409" s="5"/>
-      <c r="G409" s="6"/>
+      <c r="G409" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
     </row>
     <row r="410" spans="1:9">
-      <c r="A410" s="14"/>
+      <c r="A410" s="13"/>
       <c r="B410" s="5" t="s">
         <v>22</v>
       </c>
@@ -9669,12 +10360,14 @@
         <v>6</v>
       </c>
       <c r="F410" s="5"/>
-      <c r="G410" s="6"/>
+      <c r="G410" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
     </row>
     <row r="411" spans="1:9">
-      <c r="A411" s="14"/>
+      <c r="A411" s="13"/>
       <c r="B411" s="5" t="s">
         <v>2</v>
       </c>
@@ -9688,12 +10381,14 @@
         <v>11</v>
       </c>
       <c r="F411" s="5"/>
-      <c r="G411" s="6"/>
+      <c r="G411" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
     </row>
     <row r="412" spans="1:9">
-      <c r="A412" s="14"/>
+      <c r="A412" s="13"/>
       <c r="B412" s="5" t="s">
         <v>348</v>
       </c>
@@ -9707,12 +10402,14 @@
         <v>1</v>
       </c>
       <c r="F412" s="5"/>
-      <c r="G412" s="6"/>
+      <c r="G412" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
     </row>
     <row r="413" spans="1:9">
-      <c r="A413" s="14"/>
+      <c r="A413" s="13"/>
       <c r="B413" s="5" t="s">
         <v>19</v>
       </c>
@@ -9724,12 +10421,14 @@
       </c>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
-      <c r="G413" s="6"/>
+      <c r="G413" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
     </row>
     <row r="414" spans="1:9">
-      <c r="A414" s="14"/>
+      <c r="A414" s="13"/>
       <c r="B414" s="5" t="s">
         <v>23</v>
       </c>
@@ -9741,12 +10440,14 @@
       </c>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
-      <c r="G414" s="6"/>
+      <c r="G414" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
     </row>
     <row r="415" spans="1:9">
-      <c r="A415" s="14"/>
+      <c r="A415" s="13"/>
       <c r="B415" s="5" t="s">
         <v>349</v>
       </c>
@@ -9760,12 +10461,14 @@
         <v>50</v>
       </c>
       <c r="F415" s="5"/>
-      <c r="G415" s="6"/>
+      <c r="G415" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
     </row>
     <row r="416" spans="1:9">
-      <c r="A416" s="14"/>
+      <c r="A416" s="13"/>
       <c r="B416" s="5" t="s">
         <v>24</v>
       </c>
@@ -9779,12 +10482,14 @@
       <c r="F416" s="5">
         <v>16</v>
       </c>
-      <c r="G416" s="6"/>
+      <c r="G416" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
     </row>
     <row r="417" spans="1:9">
-      <c r="A417" s="13" t="s">
+      <c r="A417" s="12" t="s">
         <v>386</v>
       </c>
       <c r="B417" s="5" t="s">
@@ -9800,12 +10505,14 @@
         <v>3</v>
       </c>
       <c r="F417" s="5"/>
-      <c r="G417" s="6"/>
+      <c r="G417" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
     </row>
     <row r="418" spans="1:9">
-      <c r="A418" s="13"/>
+      <c r="A418" s="12"/>
       <c r="B418" s="5" t="s">
         <v>359</v>
       </c>
@@ -9819,12 +10526,14 @@
         <v>100</v>
       </c>
       <c r="F418" s="5"/>
-      <c r="G418" s="6"/>
+      <c r="G418" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
     </row>
     <row r="419" spans="1:9">
-      <c r="A419" s="13"/>
+      <c r="A419" s="12"/>
       <c r="B419" s="5" t="s">
         <v>10</v>
       </c>
@@ -9838,12 +10547,14 @@
         <v>100</v>
       </c>
       <c r="F419" s="5"/>
-      <c r="G419" s="6"/>
+      <c r="G419" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
     </row>
     <row r="420" spans="1:9">
-      <c r="A420" s="13"/>
+      <c r="A420" s="12"/>
       <c r="B420" s="5" t="s">
         <v>11</v>
       </c>
@@ -9857,12 +10568,14 @@
         <v>6</v>
       </c>
       <c r="F420" s="5"/>
-      <c r="G420" s="6"/>
+      <c r="G420" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
     </row>
     <row r="421" spans="1:9">
-      <c r="A421" s="13"/>
+      <c r="A421" s="12"/>
       <c r="B421" s="5" t="s">
         <v>360</v>
       </c>
@@ -9876,12 +10589,14 @@
         <v>50</v>
       </c>
       <c r="F421" s="5"/>
-      <c r="G421" s="6"/>
+      <c r="G421" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
     </row>
     <row r="422" spans="1:9">
-      <c r="A422" s="13"/>
+      <c r="A422" s="12"/>
       <c r="B422" s="5" t="s">
         <v>361</v>
       </c>
@@ -9895,12 +10610,14 @@
         <v>250</v>
       </c>
       <c r="F422" s="5"/>
-      <c r="G422" s="6"/>
+      <c r="G422" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
     </row>
     <row r="423" spans="1:9">
-      <c r="A423" s="13"/>
+      <c r="A423" s="12"/>
       <c r="B423" s="5" t="s">
         <v>362</v>
       </c>
@@ -9914,12 +10631,14 @@
         <v>50</v>
       </c>
       <c r="F423" s="5"/>
-      <c r="G423" s="6"/>
+      <c r="G423" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
     </row>
     <row r="424" spans="1:9">
-      <c r="A424" s="13"/>
+      <c r="A424" s="12"/>
       <c r="B424" s="5" t="s">
         <v>363</v>
       </c>
@@ -9933,12 +10652,14 @@
         <v>20</v>
       </c>
       <c r="F424" s="5"/>
-      <c r="G424" s="6"/>
+      <c r="G424" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
     </row>
     <row r="425" spans="1:9">
-      <c r="A425" s="13"/>
+      <c r="A425" s="12"/>
       <c r="B425" s="5" t="s">
         <v>364</v>
       </c>
@@ -9952,12 +10673,14 @@
         <v>30</v>
       </c>
       <c r="F425" s="5"/>
-      <c r="G425" s="6"/>
+      <c r="G425" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
     </row>
     <row r="426" spans="1:9">
-      <c r="A426" s="13"/>
+      <c r="A426" s="12"/>
       <c r="B426" s="5" t="s">
         <v>365</v>
       </c>
@@ -9971,12 +10694,14 @@
         <v>20</v>
       </c>
       <c r="F426" s="5"/>
-      <c r="G426" s="6"/>
+      <c r="G426" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
     </row>
     <row r="427" spans="1:9">
-      <c r="A427" s="13"/>
+      <c r="A427" s="12"/>
       <c r="B427" s="5" t="s">
         <v>24</v>
       </c>
@@ -9990,12 +10715,14 @@
       <c r="F427" s="5">
         <v>16</v>
       </c>
-      <c r="G427" s="6"/>
+      <c r="G427" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
     </row>
     <row r="428" spans="1:9">
-      <c r="A428" s="13"/>
+      <c r="A428" s="12"/>
       <c r="B428" s="5" t="s">
         <v>366</v>
       </c>
@@ -10009,12 +10736,14 @@
       <c r="F428" s="5">
         <v>16</v>
       </c>
-      <c r="G428" s="6"/>
+      <c r="G428" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
     </row>
     <row r="429" spans="1:9">
-      <c r="A429" s="13"/>
+      <c r="A429" s="12"/>
       <c r="B429" s="5" t="s">
         <v>367</v>
       </c>
@@ -10028,12 +10757,14 @@
       <c r="F429" s="5">
         <v>16</v>
       </c>
-      <c r="G429" s="6"/>
+      <c r="G429" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
     </row>
     <row r="430" spans="1:9">
-      <c r="A430" s="13" t="s">
+      <c r="A430" s="12" t="s">
         <v>387</v>
       </c>
       <c r="B430" s="5" t="s">
@@ -10049,12 +10780,14 @@
         <v>4</v>
       </c>
       <c r="F430" s="5"/>
-      <c r="G430" s="6"/>
+      <c r="G430" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
     </row>
     <row r="431" spans="1:9">
-      <c r="A431" s="13"/>
+      <c r="A431" s="12"/>
       <c r="B431" s="5" t="s">
         <v>369</v>
       </c>
@@ -10068,12 +10801,14 @@
         <v>50</v>
       </c>
       <c r="F431" s="5"/>
-      <c r="G431" s="6"/>
+      <c r="G431" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
     </row>
     <row r="432" spans="1:9">
-      <c r="A432" s="13"/>
+      <c r="A432" s="12"/>
       <c r="B432" s="5" t="s">
         <v>225</v>
       </c>
@@ -10087,12 +10822,14 @@
         <v>2</v>
       </c>
       <c r="F432" s="5"/>
-      <c r="G432" s="6"/>
+      <c r="G432" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
     </row>
     <row r="433" spans="1:9">
-      <c r="A433" s="13"/>
+      <c r="A433" s="12"/>
       <c r="B433" s="5" t="s">
         <v>224</v>
       </c>
@@ -10106,12 +10843,14 @@
         <v>2</v>
       </c>
       <c r="F433" s="5"/>
-      <c r="G433" s="6"/>
+      <c r="G433" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
     </row>
     <row r="434" spans="1:9">
-      <c r="A434" s="13"/>
+      <c r="A434" s="12"/>
       <c r="B434" s="5" t="s">
         <v>19</v>
       </c>
@@ -10123,12 +10862,14 @@
       </c>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
-      <c r="G434" s="6"/>
+      <c r="G434" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
     </row>
     <row r="435" spans="1:9">
-      <c r="A435" s="13"/>
+      <c r="A435" s="12"/>
       <c r="B435" s="5" t="s">
         <v>18</v>
       </c>
@@ -10142,12 +10883,14 @@
         <v>6</v>
       </c>
       <c r="F435" s="5"/>
-      <c r="G435" s="6"/>
+      <c r="G435" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
     </row>
     <row r="436" spans="1:9">
-      <c r="A436" s="13"/>
+      <c r="A436" s="12"/>
       <c r="B436" s="5" t="s">
         <v>23</v>
       </c>
@@ -10159,12 +10902,14 @@
       </c>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
-      <c r="G436" s="6"/>
+      <c r="G436" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
     </row>
     <row r="437" spans="1:9">
-      <c r="A437" s="13"/>
+      <c r="A437" s="12"/>
       <c r="B437" s="5" t="s">
         <v>22</v>
       </c>
@@ -10178,12 +10923,14 @@
         <v>6</v>
       </c>
       <c r="F437" s="5"/>
-      <c r="G437" s="6"/>
+      <c r="G437" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
     </row>
     <row r="438" spans="1:9">
-      <c r="A438" s="13"/>
+      <c r="A438" s="12"/>
       <c r="B438" s="5" t="s">
         <v>371</v>
       </c>
@@ -10197,12 +10944,14 @@
         <v>1</v>
       </c>
       <c r="F438" s="5"/>
-      <c r="G438" s="6"/>
+      <c r="G438" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
     </row>
     <row r="439" spans="1:9">
-      <c r="A439" s="13"/>
+      <c r="A439" s="12"/>
       <c r="B439" s="5" t="s">
         <v>349</v>
       </c>
@@ -10216,12 +10965,14 @@
         <v>150</v>
       </c>
       <c r="F439" s="5"/>
-      <c r="G439" s="6"/>
+      <c r="G439" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
     </row>
     <row r="440" spans="1:9">
-      <c r="A440" s="13"/>
+      <c r="A440" s="12"/>
       <c r="B440" s="5" t="s">
         <v>373</v>
       </c>
@@ -10235,12 +10986,14 @@
       <c r="F440" s="5">
         <v>5</v>
       </c>
-      <c r="G440" s="6"/>
+      <c r="G440" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
     </row>
     <row r="441" spans="1:9">
-      <c r="A441" s="13"/>
+      <c r="A441" s="12"/>
       <c r="B441" s="5" t="s">
         <v>24</v>
       </c>
@@ -10254,12 +11007,14 @@
       <c r="F441" s="5">
         <v>16</v>
       </c>
-      <c r="G441" s="6"/>
+      <c r="G441" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
     </row>
     <row r="442" spans="1:9">
-      <c r="A442" s="13"/>
+      <c r="A442" s="12"/>
       <c r="B442" s="5" t="s">
         <v>370</v>
       </c>
@@ -10273,12 +11028,14 @@
       <c r="F442" s="5">
         <v>16</v>
       </c>
-      <c r="G442" s="6"/>
+      <c r="G442" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
     </row>
     <row r="443" spans="1:9">
-      <c r="A443" s="13"/>
+      <c r="A443" s="12"/>
       <c r="B443" s="5" t="s">
         <v>372</v>
       </c>
@@ -10292,12 +11049,14 @@
       <c r="F443" s="5">
         <v>10</v>
       </c>
-      <c r="G443" s="6"/>
+      <c r="G443" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
     </row>
     <row r="444" spans="1:9">
-      <c r="A444" s="13"/>
+      <c r="A444" s="12"/>
       <c r="B444" s="5" t="s">
         <v>367</v>
       </c>
@@ -10311,12 +11070,14 @@
       <c r="F444" s="5">
         <v>16</v>
       </c>
-      <c r="G444" s="6"/>
+      <c r="G444" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
     </row>
     <row r="445" spans="1:9">
-      <c r="A445" s="15" t="s">
+      <c r="A445" s="14" t="s">
         <v>389</v>
       </c>
       <c r="B445" s="5" t="s">
@@ -10332,12 +11093,14 @@
         <v>2</v>
       </c>
       <c r="F445" s="5"/>
-      <c r="G445" s="6"/>
+      <c r="G445" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
     </row>
     <row r="446" spans="1:9">
-      <c r="A446" s="15"/>
+      <c r="A446" s="14"/>
       <c r="B446" s="5" t="s">
         <v>376</v>
       </c>
@@ -10351,12 +11114,14 @@
         <v>50</v>
       </c>
       <c r="F446" s="5"/>
-      <c r="G446" s="6"/>
+      <c r="G446" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
     </row>
     <row r="447" spans="1:9">
-      <c r="A447" s="15"/>
+      <c r="A447" s="14"/>
       <c r="B447" s="5" t="s">
         <v>18</v>
       </c>
@@ -10370,12 +11135,14 @@
         <v>6</v>
       </c>
       <c r="F447" s="5"/>
-      <c r="G447" s="6"/>
+      <c r="G447" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
     </row>
     <row r="448" spans="1:9">
-      <c r="A448" s="15"/>
+      <c r="A448" s="14"/>
       <c r="B448" s="5" t="s">
         <v>19</v>
       </c>
@@ -10387,12 +11154,14 @@
       </c>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
-      <c r="G448" s="6"/>
+      <c r="G448" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
     </row>
     <row r="449" spans="1:9">
-      <c r="A449" s="15"/>
+      <c r="A449" s="14"/>
       <c r="B449" s="5" t="s">
         <v>22</v>
       </c>
@@ -10406,12 +11175,14 @@
         <v>6</v>
       </c>
       <c r="F449" s="5"/>
-      <c r="G449" s="6"/>
+      <c r="G449" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
     </row>
     <row r="450" spans="1:9">
-      <c r="A450" s="15"/>
+      <c r="A450" s="14"/>
       <c r="B450" s="5" t="s">
         <v>23</v>
       </c>
@@ -10423,12 +11194,14 @@
       </c>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
-      <c r="G450" s="6"/>
+      <c r="G450" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
     </row>
-    <row r="451" spans="1:9" s="10" customFormat="1">
-      <c r="A451" s="15"/>
+    <row r="451" spans="1:9" s="9" customFormat="1">
+      <c r="A451" s="14"/>
       <c r="B451" s="8" t="s">
         <v>377</v>
       </c>
@@ -10442,12 +11215,14 @@
       <c r="F451" s="8">
         <v>16</v>
       </c>
-      <c r="G451" s="9"/>
+      <c r="G451" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H451" s="8"/>
       <c r="I451" s="8"/>
     </row>
     <row r="452" spans="1:9">
-      <c r="A452" s="13" t="s">
+      <c r="A452" s="12" t="s">
         <v>388</v>
       </c>
       <c r="B452" s="5" t="s">
@@ -10463,12 +11238,14 @@
         <v>6</v>
       </c>
       <c r="F452" s="5"/>
-      <c r="G452" s="6"/>
+      <c r="G452" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
     </row>
     <row r="453" spans="1:9">
-      <c r="A453" s="13"/>
+      <c r="A453" s="12"/>
       <c r="B453" s="5" t="s">
         <v>134</v>
       </c>
@@ -10482,12 +11259,14 @@
         <v>3</v>
       </c>
       <c r="F453" s="5"/>
-      <c r="G453" s="6"/>
+      <c r="G453" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
     </row>
     <row r="454" spans="1:9">
-      <c r="A454" s="13"/>
+      <c r="A454" s="12"/>
       <c r="B454" s="5" t="s">
         <v>379</v>
       </c>
@@ -10501,12 +11280,14 @@
         <v>6</v>
       </c>
       <c r="F454" s="5"/>
-      <c r="G454" s="6"/>
+      <c r="G454" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
     </row>
     <row r="455" spans="1:9">
-      <c r="A455" s="13"/>
+      <c r="A455" s="12"/>
       <c r="B455" s="5" t="s">
         <v>380</v>
       </c>
@@ -10520,12 +11301,14 @@
         <v>1</v>
       </c>
       <c r="F455" s="5"/>
-      <c r="G455" s="6"/>
+      <c r="G455" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
     </row>
     <row r="456" spans="1:9">
-      <c r="A456" s="13"/>
+      <c r="A456" s="12"/>
       <c r="B456" s="5" t="s">
         <v>381</v>
       </c>
@@ -10539,12 +11322,14 @@
         <v>50</v>
       </c>
       <c r="F456" s="5"/>
-      <c r="G456" s="6"/>
+      <c r="G456" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
     </row>
     <row r="457" spans="1:9">
-      <c r="A457" s="13"/>
+      <c r="A457" s="12"/>
       <c r="B457" s="5" t="s">
         <v>19</v>
       </c>
@@ -10556,12 +11341,14 @@
       </c>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
-      <c r="G457" s="6"/>
+      <c r="G457" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
     </row>
     <row r="458" spans="1:9">
-      <c r="A458" s="13"/>
+      <c r="A458" s="12"/>
       <c r="B458" s="5" t="s">
         <v>22</v>
       </c>
@@ -10575,12 +11362,14 @@
         <v>6</v>
       </c>
       <c r="F458" s="5"/>
-      <c r="G458" s="6"/>
+      <c r="G458" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
     </row>
     <row r="459" spans="1:9">
-      <c r="A459" s="13"/>
+      <c r="A459" s="12"/>
       <c r="B459" s="5" t="s">
         <v>23</v>
       </c>
@@ -10592,12 +11381,14 @@
       </c>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
-      <c r="G459" s="6"/>
+      <c r="G459" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
     </row>
     <row r="460" spans="1:9">
-      <c r="A460" s="13"/>
+      <c r="A460" s="12"/>
       <c r="B460" s="5" t="s">
         <v>18</v>
       </c>
@@ -10611,12 +11402,14 @@
         <v>6</v>
       </c>
       <c r="F460" s="5"/>
-      <c r="G460" s="6"/>
+      <c r="G460" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
     </row>
     <row r="461" spans="1:9">
-      <c r="A461" s="13"/>
+      <c r="A461" s="12"/>
       <c r="B461" s="5" t="s">
         <v>383</v>
       </c>
@@ -10630,12 +11423,14 @@
       <c r="F461" s="5">
         <v>16</v>
       </c>
-      <c r="G461" s="6"/>
+      <c r="G461" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
     </row>
     <row r="462" spans="1:9">
-      <c r="A462" s="13"/>
+      <c r="A462" s="12"/>
       <c r="B462" s="5" t="s">
         <v>11</v>
       </c>
@@ -10649,12 +11444,14 @@
         <v>6</v>
       </c>
       <c r="F462" s="5"/>
-      <c r="G462" s="6"/>
+      <c r="G462" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
     </row>
     <row r="463" spans="1:9">
-      <c r="A463" s="13"/>
+      <c r="A463" s="12"/>
       <c r="B463" s="5" t="s">
         <v>384</v>
       </c>
@@ -10668,12 +11465,14 @@
         <v>3</v>
       </c>
       <c r="F463" s="5"/>
-      <c r="G463" s="6"/>
+      <c r="G463" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
     </row>
     <row r="464" spans="1:9">
-      <c r="A464" s="13"/>
+      <c r="A464" s="12"/>
       <c r="B464" s="5" t="s">
         <v>385</v>
       </c>
@@ -10687,12 +11486,14 @@
       <c r="F464" s="5">
         <v>16</v>
       </c>
-      <c r="G464" s="6"/>
+      <c r="G464" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
     </row>
     <row r="465" spans="1:9">
-      <c r="A465" s="13"/>
+      <c r="A465" s="12"/>
       <c r="B465" s="5" t="s">
         <v>99</v>
       </c>
@@ -10706,12 +11507,14 @@
       <c r="F465" s="5">
         <v>6</v>
       </c>
-      <c r="G465" s="6"/>
+      <c r="G465" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
     </row>
     <row r="466" spans="1:9">
-      <c r="A466" s="13"/>
+      <c r="A466" s="12"/>
       <c r="B466" s="5" t="s">
         <v>108</v>
       </c>
@@ -10725,12 +11528,14 @@
       <c r="F466" s="5">
         <v>10</v>
       </c>
-      <c r="G466" s="6"/>
+      <c r="G466" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
     </row>
     <row r="467" spans="1:9">
-      <c r="A467" s="13"/>
+      <c r="A467" s="12"/>
       <c r="B467" s="5" t="s">
         <v>24</v>
       </c>
@@ -10744,12 +11549,14 @@
       <c r="F467" s="5">
         <v>16</v>
       </c>
-      <c r="G467" s="6"/>
+      <c r="G467" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
     </row>
     <row r="468" spans="1:9">
-      <c r="A468" s="13"/>
+      <c r="A468" s="12"/>
       <c r="B468" s="5" t="s">
         <v>382</v>
       </c>
@@ -10763,12 +11570,14 @@
       <c r="F468" s="5">
         <v>6</v>
       </c>
-      <c r="G468" s="6"/>
+      <c r="G468" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
     </row>
     <row r="469" spans="1:9">
-      <c r="A469" s="13" t="s">
+      <c r="A469" s="12" t="s">
         <v>397</v>
       </c>
       <c r="B469" s="5" t="s">
@@ -10784,12 +11593,14 @@
         <v>2</v>
       </c>
       <c r="F469" s="5"/>
-      <c r="G469" s="6"/>
+      <c r="G469" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
     </row>
     <row r="470" spans="1:9">
-      <c r="A470" s="13"/>
+      <c r="A470" s="12"/>
       <c r="B470" s="5" t="s">
         <v>392</v>
       </c>
@@ -10803,12 +11614,14 @@
         <v>2</v>
       </c>
       <c r="F470" s="5"/>
-      <c r="G470" s="6"/>
+      <c r="G470" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
     </row>
     <row r="471" spans="1:9">
-      <c r="A471" s="13"/>
+      <c r="A471" s="12"/>
       <c r="B471" s="5" t="s">
         <v>393</v>
       </c>
@@ -10822,12 +11635,14 @@
         <v>2</v>
       </c>
       <c r="F471" s="5"/>
-      <c r="G471" s="6"/>
+      <c r="G471" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
     </row>
     <row r="472" spans="1:9">
-      <c r="A472" s="13"/>
+      <c r="A472" s="12"/>
       <c r="B472" s="5" t="s">
         <v>11</v>
       </c>
@@ -10841,12 +11656,14 @@
         <v>6</v>
       </c>
       <c r="F472" s="5"/>
-      <c r="G472" s="6"/>
+      <c r="G472" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
     </row>
     <row r="473" spans="1:9">
-      <c r="A473" s="13"/>
+      <c r="A473" s="12"/>
       <c r="B473" s="5" t="s">
         <v>394</v>
       </c>
@@ -10860,12 +11677,14 @@
         <v>100</v>
       </c>
       <c r="F473" s="5"/>
-      <c r="G473" s="6"/>
+      <c r="G473" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
     </row>
     <row r="474" spans="1:9">
-      <c r="A474" s="13"/>
+      <c r="A474" s="12"/>
       <c r="B474" s="5" t="s">
         <v>395</v>
       </c>
@@ -10879,12 +11698,14 @@
         <v>100</v>
       </c>
       <c r="F474" s="5"/>
-      <c r="G474" s="6"/>
+      <c r="G474" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
     </row>
     <row r="475" spans="1:9">
-      <c r="A475" s="13"/>
+      <c r="A475" s="12"/>
       <c r="B475" s="5" t="s">
         <v>133</v>
       </c>
@@ -10898,12 +11719,14 @@
         <v>100</v>
       </c>
       <c r="F475" s="5"/>
-      <c r="G475" s="6"/>
+      <c r="G475" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
     </row>
     <row r="476" spans="1:9">
-      <c r="A476" s="13"/>
+      <c r="A476" s="12"/>
       <c r="B476" s="5" t="s">
         <v>304</v>
       </c>
@@ -10917,12 +11740,14 @@
         <v>200</v>
       </c>
       <c r="F476" s="5"/>
-      <c r="G476" s="6"/>
+      <c r="G476" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
     </row>
     <row r="477" spans="1:9">
-      <c r="A477" s="13"/>
+      <c r="A477" s="12"/>
       <c r="B477" s="5" t="s">
         <v>134</v>
       </c>
@@ -10936,12 +11761,14 @@
         <v>3</v>
       </c>
       <c r="F477" s="5"/>
-      <c r="G477" s="6"/>
+      <c r="G477" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
     </row>
     <row r="478" spans="1:9">
-      <c r="A478" s="13"/>
+      <c r="A478" s="12"/>
       <c r="B478" s="5" t="s">
         <v>81</v>
       </c>
@@ -10955,12 +11782,14 @@
         <v>4</v>
       </c>
       <c r="F478" s="5"/>
-      <c r="G478" s="6"/>
+      <c r="G478" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
     </row>
     <row r="479" spans="1:9">
-      <c r="A479" s="13"/>
+      <c r="A479" s="12"/>
       <c r="B479" s="5" t="s">
         <v>396</v>
       </c>
@@ -10974,12 +11803,14 @@
       <c r="F479" s="5">
         <v>16</v>
       </c>
-      <c r="G479" s="6"/>
+      <c r="G479" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
     </row>
     <row r="480" spans="1:9">
-      <c r="A480" s="13" t="s">
+      <c r="A480" s="12" t="s">
         <v>460</v>
       </c>
       <c r="B480" s="5" t="s">
@@ -10995,12 +11826,14 @@
         <v>2</v>
       </c>
       <c r="F480" s="5"/>
-      <c r="G480" s="6"/>
+      <c r="G480" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
     </row>
     <row r="481" spans="1:9">
-      <c r="A481" s="13"/>
+      <c r="A481" s="12"/>
       <c r="B481" s="5" t="s">
         <v>239</v>
       </c>
@@ -11012,12 +11845,14 @@
       </c>
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
-      <c r="G481" s="6"/>
+      <c r="G481" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
     </row>
     <row r="482" spans="1:9">
-      <c r="A482" s="13"/>
+      <c r="A482" s="12"/>
       <c r="B482" s="5" t="s">
         <v>399</v>
       </c>
@@ -11031,12 +11866,14 @@
         <v>11</v>
       </c>
       <c r="F482" s="5"/>
-      <c r="G482" s="6"/>
+      <c r="G482" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
     </row>
     <row r="483" spans="1:9">
-      <c r="A483" s="13"/>
+      <c r="A483" s="12"/>
       <c r="B483" s="5" t="s">
         <v>26</v>
       </c>
@@ -11050,12 +11887,14 @@
         <v>150</v>
       </c>
       <c r="F483" s="5"/>
-      <c r="G483" s="6"/>
+      <c r="G483" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
     </row>
     <row r="484" spans="1:9">
-      <c r="A484" s="13"/>
+      <c r="A484" s="12"/>
       <c r="B484" s="5" t="s">
         <v>10</v>
       </c>
@@ -11069,12 +11908,14 @@
         <v>150</v>
       </c>
       <c r="F484" s="5"/>
-      <c r="G484" s="6"/>
+      <c r="G484" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
     </row>
     <row r="485" spans="1:9">
-      <c r="A485" s="13"/>
+      <c r="A485" s="12"/>
       <c r="B485" s="5" t="s">
         <v>15</v>
       </c>
@@ -11088,12 +11929,14 @@
         <v>150</v>
       </c>
       <c r="F485" s="5"/>
-      <c r="G485" s="6"/>
+      <c r="G485" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
     </row>
     <row r="486" spans="1:9">
-      <c r="A486" s="13"/>
+      <c r="A486" s="12"/>
       <c r="B486" s="5" t="s">
         <v>400</v>
       </c>
@@ -11107,12 +11950,14 @@
         <v>2</v>
       </c>
       <c r="F486" s="5"/>
-      <c r="G486" s="6"/>
+      <c r="G486" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
     </row>
     <row r="487" spans="1:9">
-      <c r="A487" s="13"/>
+      <c r="A487" s="12"/>
       <c r="B487" s="5" t="s">
         <v>11</v>
       </c>
@@ -11126,12 +11971,14 @@
         <v>6</v>
       </c>
       <c r="F487" s="5"/>
-      <c r="G487" s="6"/>
+      <c r="G487" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
     </row>
     <row r="488" spans="1:9">
-      <c r="A488" s="13"/>
+      <c r="A488" s="12"/>
       <c r="B488" s="5" t="s">
         <v>134</v>
       </c>
@@ -11145,12 +11992,14 @@
         <v>3</v>
       </c>
       <c r="F488" s="5"/>
-      <c r="G488" s="6"/>
+      <c r="G488" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
     </row>
     <row r="489" spans="1:9">
-      <c r="A489" s="13"/>
+      <c r="A489" s="12"/>
       <c r="B489" s="5" t="s">
         <v>13</v>
       </c>
@@ -11164,12 +12013,14 @@
         <v>30</v>
       </c>
       <c r="F489" s="5"/>
-      <c r="G489" s="6"/>
+      <c r="G489" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
     </row>
     <row r="490" spans="1:9">
-      <c r="A490" s="13"/>
+      <c r="A490" s="12"/>
       <c r="B490" s="5" t="s">
         <v>401</v>
       </c>
@@ -11183,12 +12034,14 @@
         <v>10</v>
       </c>
       <c r="F490" s="5"/>
-      <c r="G490" s="6"/>
+      <c r="G490" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
     </row>
     <row r="491" spans="1:9">
-      <c r="A491" s="13"/>
+      <c r="A491" s="12"/>
       <c r="B491" s="5" t="s">
         <v>402</v>
       </c>
@@ -11202,12 +12055,14 @@
         <v>30</v>
       </c>
       <c r="F491" s="5"/>
-      <c r="G491" s="6"/>
+      <c r="G491" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
     </row>
     <row r="492" spans="1:9">
-      <c r="A492" s="13"/>
+      <c r="A492" s="12"/>
       <c r="B492" s="5" t="s">
         <v>27</v>
       </c>
@@ -11221,12 +12076,14 @@
         <v>150</v>
       </c>
       <c r="F492" s="5"/>
-      <c r="G492" s="6"/>
+      <c r="G492" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
     </row>
     <row r="493" spans="1:9">
-      <c r="A493" s="13"/>
+      <c r="A493" s="12"/>
       <c r="B493" s="5" t="s">
         <v>403</v>
       </c>
@@ -11240,12 +12097,14 @@
         <v>2</v>
       </c>
       <c r="F493" s="5"/>
-      <c r="G493" s="6"/>
+      <c r="G493" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
     </row>
     <row r="494" spans="1:9">
-      <c r="A494" s="13"/>
+      <c r="A494" s="12"/>
       <c r="B494" s="5" t="s">
         <v>404</v>
       </c>
@@ -11259,12 +12118,14 @@
         <v>60</v>
       </c>
       <c r="F494" s="5"/>
-      <c r="G494" s="6"/>
+      <c r="G494" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
     </row>
     <row r="495" spans="1:9">
-      <c r="A495" s="13"/>
+      <c r="A495" s="12"/>
       <c r="B495" s="5" t="s">
         <v>405</v>
       </c>
@@ -11278,12 +12139,14 @@
         <v>30</v>
       </c>
       <c r="F495" s="5"/>
-      <c r="G495" s="6"/>
+      <c r="G495" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
     </row>
     <row r="496" spans="1:9">
-      <c r="A496" s="13"/>
+      <c r="A496" s="12"/>
       <c r="B496" s="5" t="s">
         <v>406</v>
       </c>
@@ -11297,12 +12160,14 @@
         <v>2</v>
       </c>
       <c r="F496" s="5"/>
-      <c r="G496" s="6"/>
+      <c r="G496" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
     </row>
     <row r="497" spans="1:9">
-      <c r="A497" s="13"/>
+      <c r="A497" s="12"/>
       <c r="B497" s="5" t="s">
         <v>407</v>
       </c>
@@ -11316,12 +12181,14 @@
         <v>50</v>
       </c>
       <c r="F497" s="5"/>
-      <c r="G497" s="6"/>
+      <c r="G497" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
     </row>
     <row r="498" spans="1:9">
-      <c r="A498" s="13"/>
+      <c r="A498" s="12"/>
       <c r="B498" s="5" t="s">
         <v>408</v>
       </c>
@@ -11335,12 +12202,14 @@
         <v>50</v>
       </c>
       <c r="F498" s="5"/>
-      <c r="G498" s="6"/>
+      <c r="G498" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
     </row>
     <row r="499" spans="1:9">
-      <c r="A499" s="13"/>
+      <c r="A499" s="12"/>
       <c r="B499" s="5" t="s">
         <v>409</v>
       </c>
@@ -11354,12 +12223,14 @@
         <v>200</v>
       </c>
       <c r="F499" s="5"/>
-      <c r="G499" s="6"/>
+      <c r="G499" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
     </row>
     <row r="500" spans="1:9">
-      <c r="A500" s="13"/>
+      <c r="A500" s="12"/>
       <c r="B500" s="5" t="s">
         <v>410</v>
       </c>
@@ -11373,12 +12244,14 @@
         <v>50</v>
       </c>
       <c r="F500" s="5"/>
-      <c r="G500" s="6"/>
+      <c r="G500" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
     </row>
     <row r="501" spans="1:9">
-      <c r="A501" s="13"/>
+      <c r="A501" s="12"/>
       <c r="B501" s="5" t="s">
         <v>411</v>
       </c>
@@ -11392,12 +12265,14 @@
         <v>2</v>
       </c>
       <c r="F501" s="5"/>
-      <c r="G501" s="6"/>
+      <c r="G501" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
     </row>
     <row r="502" spans="1:9">
-      <c r="A502" s="13"/>
+      <c r="A502" s="12"/>
       <c r="B502" s="5" t="s">
         <v>412</v>
       </c>
@@ -11411,12 +12286,14 @@
         <v>50</v>
       </c>
       <c r="F502" s="5"/>
-      <c r="G502" s="6"/>
+      <c r="G502" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
     </row>
     <row r="503" spans="1:9">
-      <c r="A503" s="13"/>
+      <c r="A503" s="12"/>
       <c r="B503" s="5" t="s">
         <v>413</v>
       </c>
@@ -11430,12 +12307,14 @@
         <v>50</v>
       </c>
       <c r="F503" s="5"/>
-      <c r="G503" s="6"/>
+      <c r="G503" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
     </row>
     <row r="504" spans="1:9">
-      <c r="A504" s="13"/>
+      <c r="A504" s="12"/>
       <c r="B504" s="5" t="s">
         <v>414</v>
       </c>
@@ -11449,12 +12328,14 @@
         <v>50</v>
       </c>
       <c r="F504" s="5"/>
-      <c r="G504" s="6"/>
+      <c r="G504" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
     </row>
     <row r="505" spans="1:9">
-      <c r="A505" s="13"/>
+      <c r="A505" s="12"/>
       <c r="B505" s="5" t="s">
         <v>415</v>
       </c>
@@ -11468,12 +12349,14 @@
         <v>200</v>
       </c>
       <c r="F505" s="5"/>
-      <c r="G505" s="6"/>
+      <c r="G505" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
     </row>
     <row r="506" spans="1:9">
-      <c r="A506" s="13"/>
+      <c r="A506" s="12"/>
       <c r="B506" s="5" t="s">
         <v>416</v>
       </c>
@@ -11487,12 +12370,14 @@
         <v>200</v>
       </c>
       <c r="F506" s="5"/>
-      <c r="G506" s="6"/>
+      <c r="G506" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
     </row>
     <row r="507" spans="1:9">
-      <c r="A507" s="13"/>
+      <c r="A507" s="12"/>
       <c r="B507" s="5" t="s">
         <v>225</v>
       </c>
@@ -11506,12 +12391,14 @@
         <v>2</v>
       </c>
       <c r="F507" s="5"/>
-      <c r="G507" s="6"/>
+      <c r="G507" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
     </row>
     <row r="508" spans="1:9">
-      <c r="A508" s="13"/>
+      <c r="A508" s="12"/>
       <c r="B508" s="5" t="s">
         <v>224</v>
       </c>
@@ -11525,12 +12412,14 @@
         <v>2</v>
       </c>
       <c r="F508" s="5"/>
-      <c r="G508" s="6"/>
+      <c r="G508" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
     </row>
     <row r="509" spans="1:9">
-      <c r="A509" s="13"/>
+      <c r="A509" s="12"/>
       <c r="B509" s="5" t="s">
         <v>226</v>
       </c>
@@ -11544,12 +12433,14 @@
         <v>4</v>
       </c>
       <c r="F509" s="5"/>
-      <c r="G509" s="6"/>
+      <c r="G509" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
     </row>
     <row r="510" spans="1:9">
-      <c r="A510" s="13"/>
+      <c r="A510" s="12"/>
       <c r="B510" s="5" t="s">
         <v>227</v>
       </c>
@@ -11563,12 +12454,14 @@
         <v>4</v>
       </c>
       <c r="F510" s="5"/>
-      <c r="G510" s="6"/>
+      <c r="G510" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
     </row>
     <row r="511" spans="1:9">
-      <c r="A511" s="13"/>
+      <c r="A511" s="12"/>
       <c r="B511" s="5" t="s">
         <v>218</v>
       </c>
@@ -11582,12 +12475,14 @@
       <c r="F511" s="5">
         <v>10</v>
       </c>
-      <c r="G511" s="6"/>
+      <c r="G511" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
     </row>
     <row r="512" spans="1:9">
-      <c r="A512" s="13"/>
+      <c r="A512" s="12"/>
       <c r="B512" s="5" t="s">
         <v>417</v>
       </c>
@@ -11601,12 +12496,14 @@
       <c r="F512" s="5">
         <v>10</v>
       </c>
-      <c r="G512" s="6"/>
+      <c r="G512" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
     </row>
     <row r="513" spans="1:9">
-      <c r="A513" s="13"/>
+      <c r="A513" s="12"/>
       <c r="B513" s="5" t="s">
         <v>418</v>
       </c>
@@ -11620,12 +12517,14 @@
       <c r="F513" s="5">
         <v>10</v>
       </c>
-      <c r="G513" s="6"/>
+      <c r="G513" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
     </row>
     <row r="514" spans="1:9">
-      <c r="A514" s="13"/>
+      <c r="A514" s="12"/>
       <c r="B514" s="5" t="s">
         <v>419</v>
       </c>
@@ -11639,12 +12538,14 @@
       <c r="F514" s="5">
         <v>12</v>
       </c>
-      <c r="G514" s="6"/>
+      <c r="G514" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
     </row>
     <row r="515" spans="1:9">
-      <c r="A515" s="13"/>
+      <c r="A515" s="12"/>
       <c r="B515" s="5" t="s">
         <v>420</v>
       </c>
@@ -11658,12 +12559,14 @@
       <c r="F515" s="5">
         <v>10</v>
       </c>
-      <c r="G515" s="6"/>
+      <c r="G515" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
     </row>
     <row r="516" spans="1:9">
-      <c r="A516" s="13"/>
+      <c r="A516" s="12"/>
       <c r="B516" s="5" t="s">
         <v>278</v>
       </c>
@@ -11677,12 +12580,14 @@
       <c r="F516" s="5">
         <v>13</v>
       </c>
-      <c r="G516" s="6"/>
+      <c r="G516" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
     </row>
     <row r="517" spans="1:9">
-      <c r="A517" s="13"/>
+      <c r="A517" s="12"/>
       <c r="B517" s="5" t="s">
         <v>421</v>
       </c>
@@ -11696,12 +12601,14 @@
       <c r="F517" s="5">
         <v>10</v>
       </c>
-      <c r="G517" s="6"/>
+      <c r="G517" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
     </row>
     <row r="518" spans="1:9">
-      <c r="A518" s="13"/>
+      <c r="A518" s="12"/>
       <c r="B518" s="5" t="s">
         <v>422</v>
       </c>
@@ -11715,12 +12622,14 @@
       <c r="F518" s="5">
         <v>32</v>
       </c>
-      <c r="G518" s="6"/>
+      <c r="G518" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
     </row>
     <row r="519" spans="1:9">
-      <c r="A519" s="13"/>
+      <c r="A519" s="12"/>
       <c r="B519" s="5" t="s">
         <v>185</v>
       </c>
@@ -11734,12 +12643,14 @@
         <v>1</v>
       </c>
       <c r="F519" s="5"/>
-      <c r="G519" s="6"/>
+      <c r="G519" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
     </row>
     <row r="520" spans="1:9">
-      <c r="A520" s="13"/>
+      <c r="A520" s="12"/>
       <c r="B520" s="5" t="s">
         <v>423</v>
       </c>
@@ -11753,12 +12664,14 @@
       <c r="F520" s="5">
         <v>10</v>
       </c>
-      <c r="G520" s="6"/>
+      <c r="G520" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
     </row>
     <row r="521" spans="1:9">
-      <c r="A521" s="13"/>
+      <c r="A521" s="12"/>
       <c r="B521" s="5" t="s">
         <v>89</v>
       </c>
@@ -11772,12 +12685,14 @@
       <c r="F521" s="5">
         <v>10</v>
       </c>
-      <c r="G521" s="6"/>
+      <c r="G521" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
     </row>
     <row r="522" spans="1:9">
-      <c r="A522" s="13"/>
+      <c r="A522" s="12"/>
       <c r="B522" s="5" t="s">
         <v>424</v>
       </c>
@@ -11791,12 +12706,14 @@
       <c r="F522" s="5">
         <v>10</v>
       </c>
-      <c r="G522" s="6"/>
+      <c r="G522" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
     </row>
     <row r="523" spans="1:9">
-      <c r="A523" s="13"/>
+      <c r="A523" s="12"/>
       <c r="B523" s="5" t="s">
         <v>425</v>
       </c>
@@ -11810,12 +12727,14 @@
       <c r="F523" s="5">
         <v>10</v>
       </c>
-      <c r="G523" s="6"/>
+      <c r="G523" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
     </row>
     <row r="524" spans="1:9">
-      <c r="A524" s="13"/>
+      <c r="A524" s="12"/>
       <c r="B524" s="5" t="s">
         <v>426</v>
       </c>
@@ -11829,12 +12748,14 @@
       <c r="F524" s="5">
         <v>10</v>
       </c>
-      <c r="G524" s="6"/>
+      <c r="G524" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H524" s="5"/>
       <c r="I524" s="5"/>
     </row>
     <row r="525" spans="1:9">
-      <c r="A525" s="13"/>
+      <c r="A525" s="12"/>
       <c r="B525" s="5" t="s">
         <v>385</v>
       </c>
@@ -11846,12 +12767,14 @@
       </c>
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
-      <c r="G525" s="6"/>
+      <c r="G525" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H525" s="5"/>
       <c r="I525" s="5"/>
     </row>
     <row r="526" spans="1:9">
-      <c r="A526" s="13"/>
+      <c r="A526" s="12"/>
       <c r="B526" s="5" t="s">
         <v>427</v>
       </c>
@@ -11863,12 +12786,14 @@
       </c>
       <c r="E526" s="5"/>
       <c r="F526" s="5"/>
-      <c r="G526" s="6"/>
+      <c r="G526" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H526" s="5"/>
       <c r="I526" s="5"/>
     </row>
     <row r="527" spans="1:9">
-      <c r="A527" s="13"/>
+      <c r="A527" s="12"/>
       <c r="B527" s="5" t="s">
         <v>428</v>
       </c>
@@ -11880,12 +12805,14 @@
       </c>
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
-      <c r="G527" s="6"/>
+      <c r="G527" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
     </row>
     <row r="528" spans="1:9">
-      <c r="A528" s="13"/>
+      <c r="A528" s="12"/>
       <c r="B528" s="5" t="s">
         <v>429</v>
       </c>
@@ -11897,12 +12824,14 @@
       </c>
       <c r="E528" s="5"/>
       <c r="F528" s="5"/>
-      <c r="G528" s="6"/>
+      <c r="G528" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H528" s="5"/>
       <c r="I528" s="5"/>
     </row>
     <row r="529" spans="1:9">
-      <c r="A529" s="13"/>
+      <c r="A529" s="12"/>
       <c r="B529" s="5" t="s">
         <v>430</v>
       </c>
@@ -11916,12 +12845,14 @@
         <v>10</v>
       </c>
       <c r="F529" s="5"/>
-      <c r="G529" s="6"/>
+      <c r="G529" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
     </row>
     <row r="530" spans="1:9">
-      <c r="A530" s="13"/>
+      <c r="A530" s="12"/>
       <c r="B530" s="5" t="s">
         <v>193</v>
       </c>
@@ -11935,12 +12866,14 @@
       <c r="F530" s="5">
         <v>10</v>
       </c>
-      <c r="G530" s="6"/>
+      <c r="G530" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
     </row>
     <row r="531" spans="1:9">
-      <c r="A531" s="13"/>
+      <c r="A531" s="12"/>
       <c r="B531" s="5" t="s">
         <v>192</v>
       </c>
@@ -11954,12 +12887,14 @@
       <c r="F531" s="5">
         <v>10</v>
       </c>
-      <c r="G531" s="6"/>
+      <c r="G531" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H531" s="5"/>
       <c r="I531" s="5"/>
     </row>
     <row r="532" spans="1:9">
-      <c r="A532" s="13"/>
+      <c r="A532" s="12"/>
       <c r="B532" s="5" t="s">
         <v>194</v>
       </c>
@@ -11973,12 +12908,14 @@
       <c r="F532" s="5">
         <v>10</v>
       </c>
-      <c r="G532" s="6"/>
+      <c r="G532" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H532" s="5"/>
       <c r="I532" s="5"/>
     </row>
     <row r="533" spans="1:9">
-      <c r="A533" s="13"/>
+      <c r="A533" s="12"/>
       <c r="B533" s="5" t="s">
         <v>431</v>
       </c>
@@ -11992,12 +12929,14 @@
       <c r="F533" s="5">
         <v>10</v>
       </c>
-      <c r="G533" s="6"/>
+      <c r="G533" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
     </row>
     <row r="534" spans="1:9">
-      <c r="A534" s="13"/>
+      <c r="A534" s="12"/>
       <c r="B534" s="5" t="s">
         <v>432</v>
       </c>
@@ -12009,12 +12948,14 @@
       </c>
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
-      <c r="G534" s="6"/>
+      <c r="G534" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H534" s="5"/>
       <c r="I534" s="5"/>
     </row>
     <row r="535" spans="1:9">
-      <c r="A535" s="13"/>
+      <c r="A535" s="12"/>
       <c r="B535" s="5" t="s">
         <v>433</v>
       </c>
@@ -12028,12 +12969,14 @@
         <v>3</v>
       </c>
       <c r="F535" s="5"/>
-      <c r="G535" s="6"/>
+      <c r="G535" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
     </row>
     <row r="536" spans="1:9">
-      <c r="A536" s="13"/>
+      <c r="A536" s="12"/>
       <c r="B536" s="5" t="s">
         <v>434</v>
       </c>
@@ -12047,12 +12990,14 @@
       <c r="F536" s="5">
         <v>5</v>
       </c>
-      <c r="G536" s="6"/>
+      <c r="G536" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H536" s="5"/>
       <c r="I536" s="5"/>
     </row>
     <row r="537" spans="1:9">
-      <c r="A537" s="13"/>
+      <c r="A537" s="12"/>
       <c r="B537" s="5" t="s">
         <v>348</v>
       </c>
@@ -12066,12 +13011,14 @@
         <v>1</v>
       </c>
       <c r="F537" s="5"/>
-      <c r="G537" s="6"/>
+      <c r="G537" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
     </row>
     <row r="538" spans="1:9">
-      <c r="A538" s="13"/>
+      <c r="A538" s="12"/>
       <c r="B538" s="5" t="s">
         <v>435</v>
       </c>
@@ -12085,12 +13032,14 @@
         <v>150</v>
       </c>
       <c r="F538" s="5"/>
-      <c r="G538" s="6"/>
+      <c r="G538" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
     </row>
     <row r="539" spans="1:9">
-      <c r="A539" s="13"/>
+      <c r="A539" s="12"/>
       <c r="B539" s="5" t="s">
         <v>347</v>
       </c>
@@ -12104,12 +13053,14 @@
         <v>150</v>
       </c>
       <c r="F539" s="5"/>
-      <c r="G539" s="6"/>
+      <c r="G539" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
     </row>
     <row r="540" spans="1:9">
-      <c r="A540" s="13"/>
+      <c r="A540" s="12"/>
       <c r="B540" s="5" t="s">
         <v>436</v>
       </c>
@@ -12123,12 +13074,14 @@
         <v>800</v>
       </c>
       <c r="F540" s="5"/>
-      <c r="G540" s="6"/>
+      <c r="G540" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H540" s="5"/>
       <c r="I540" s="5"/>
     </row>
     <row r="541" spans="1:9">
-      <c r="A541" s="13"/>
+      <c r="A541" s="12"/>
       <c r="B541" s="5" t="s">
         <v>437</v>
       </c>
@@ -12142,12 +13095,14 @@
         <v>2</v>
       </c>
       <c r="F541" s="5"/>
-      <c r="G541" s="6"/>
+      <c r="G541" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H541" s="5"/>
       <c r="I541" s="5"/>
     </row>
     <row r="542" spans="1:9">
-      <c r="A542" s="13"/>
+      <c r="A542" s="12"/>
       <c r="B542" s="5" t="s">
         <v>438</v>
       </c>
@@ -12161,12 +13116,14 @@
         <v>20</v>
       </c>
       <c r="F542" s="5"/>
-      <c r="G542" s="6"/>
+      <c r="G542" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H542" s="5"/>
       <c r="I542" s="5"/>
     </row>
     <row r="543" spans="1:9">
-      <c r="A543" s="13"/>
+      <c r="A543" s="12"/>
       <c r="B543" s="5" t="s">
         <v>439</v>
       </c>
@@ -12178,12 +13135,14 @@
       </c>
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
-      <c r="G543" s="6"/>
+      <c r="G543" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
     </row>
     <row r="544" spans="1:9">
-      <c r="A544" s="13"/>
+      <c r="A544" s="12"/>
       <c r="B544" s="5" t="s">
         <v>113</v>
       </c>
@@ -12197,12 +13156,14 @@
         <v>3</v>
       </c>
       <c r="F544" s="5"/>
-      <c r="G544" s="6"/>
+      <c r="G544" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
     </row>
     <row r="545" spans="1:9">
-      <c r="A545" s="13"/>
+      <c r="A545" s="12"/>
       <c r="B545" s="5" t="s">
         <v>114</v>
       </c>
@@ -12216,12 +13177,14 @@
         <v>7</v>
       </c>
       <c r="F545" s="5"/>
-      <c r="G545" s="6"/>
+      <c r="G545" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
     </row>
     <row r="546" spans="1:9">
-      <c r="A546" s="13"/>
+      <c r="A546" s="12"/>
       <c r="B546" s="5" t="s">
         <v>24</v>
       </c>
@@ -12235,12 +13198,14 @@
       <c r="F546" s="5">
         <v>16</v>
       </c>
-      <c r="G546" s="6"/>
+      <c r="G546" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
     </row>
     <row r="547" spans="1:9">
-      <c r="A547" s="13"/>
+      <c r="A547" s="12"/>
       <c r="B547" s="5" t="s">
         <v>128</v>
       </c>
@@ -12254,12 +13219,14 @@
         <v>80</v>
       </c>
       <c r="F547" s="5"/>
-      <c r="G547" s="6"/>
+      <c r="G547" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
     </row>
     <row r="548" spans="1:9">
-      <c r="A548" s="13"/>
+      <c r="A548" s="12"/>
       <c r="B548" s="5" t="s">
         <v>18</v>
       </c>
@@ -12273,12 +13240,14 @@
         <v>6</v>
       </c>
       <c r="F548" s="5"/>
-      <c r="G548" s="6"/>
+      <c r="G548" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H548" s="5"/>
       <c r="I548" s="5"/>
     </row>
     <row r="549" spans="1:9">
-      <c r="A549" s="13"/>
+      <c r="A549" s="12"/>
       <c r="B549" s="5" t="s">
         <v>19</v>
       </c>
@@ -12290,12 +13259,14 @@
       </c>
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
-      <c r="G549" s="6"/>
+      <c r="G549" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H549" s="5"/>
       <c r="I549" s="5"/>
     </row>
     <row r="550" spans="1:9">
-      <c r="A550" s="13"/>
+      <c r="A550" s="12"/>
       <c r="B550" s="5" t="s">
         <v>22</v>
       </c>
@@ -12309,12 +13280,14 @@
         <v>6</v>
       </c>
       <c r="F550" s="5"/>
-      <c r="G550" s="6"/>
+      <c r="G550" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H550" s="5"/>
       <c r="I550" s="5"/>
     </row>
     <row r="551" spans="1:9">
-      <c r="A551" s="13"/>
+      <c r="A551" s="12"/>
       <c r="B551" s="5" t="s">
         <v>23</v>
       </c>
@@ -12326,12 +13299,14 @@
       </c>
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
-      <c r="G551" s="6"/>
+      <c r="G551" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H551" s="5"/>
       <c r="I551" s="5"/>
     </row>
     <row r="552" spans="1:9">
-      <c r="A552" s="13"/>
+      <c r="A552" s="12"/>
       <c r="B552" s="5" t="s">
         <v>440</v>
       </c>
@@ -12345,12 +13320,14 @@
         <v>50</v>
       </c>
       <c r="F552" s="5"/>
-      <c r="G552" s="6"/>
+      <c r="G552" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H552" s="5"/>
       <c r="I552" s="5"/>
     </row>
     <row r="553" spans="1:9">
-      <c r="A553" s="13"/>
+      <c r="A553" s="12"/>
       <c r="B553" s="5" t="s">
         <v>2</v>
       </c>
@@ -12364,12 +13341,14 @@
         <v>11</v>
       </c>
       <c r="F553" s="5"/>
-      <c r="G553" s="6"/>
+      <c r="G553" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H553" s="5"/>
       <c r="I553" s="5"/>
     </row>
     <row r="554" spans="1:9">
-      <c r="A554" s="13"/>
+      <c r="A554" s="12"/>
       <c r="B554" s="5" t="s">
         <v>5</v>
       </c>
@@ -12383,12 +13362,14 @@
         <v>15</v>
       </c>
       <c r="F554" s="5"/>
-      <c r="G554" s="6"/>
+      <c r="G554" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H554" s="5"/>
       <c r="I554" s="5"/>
     </row>
     <row r="555" spans="1:9">
-      <c r="A555" s="13"/>
+      <c r="A555" s="12"/>
       <c r="B555" s="5" t="s">
         <v>282</v>
       </c>
@@ -12402,12 +13383,14 @@
       <c r="F555" s="5">
         <v>16</v>
       </c>
-      <c r="G555" s="6"/>
+      <c r="G555" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H555" s="5"/>
       <c r="I555" s="5"/>
     </row>
     <row r="556" spans="1:9">
-      <c r="A556" s="13"/>
+      <c r="A556" s="12"/>
       <c r="B556" s="5" t="s">
         <v>441</v>
       </c>
@@ -12419,12 +13402,14 @@
       </c>
       <c r="E556" s="5"/>
       <c r="F556" s="5"/>
-      <c r="G556" s="6"/>
+      <c r="G556" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H556" s="5"/>
       <c r="I556" s="5"/>
     </row>
     <row r="557" spans="1:9">
-      <c r="A557" s="13"/>
+      <c r="A557" s="12"/>
       <c r="B557" s="5" t="s">
         <v>442</v>
       </c>
@@ -12438,12 +13423,14 @@
         <v>6</v>
       </c>
       <c r="F557" s="5"/>
-      <c r="G557" s="6"/>
+      <c r="G557" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H557" s="5"/>
       <c r="I557" s="5"/>
     </row>
     <row r="558" spans="1:9">
-      <c r="A558" s="13"/>
+      <c r="A558" s="12"/>
       <c r="B558" s="5" t="s">
         <v>443</v>
       </c>
@@ -12457,12 +13444,14 @@
         <v>6</v>
       </c>
       <c r="F558" s="5"/>
-      <c r="G558" s="6"/>
+      <c r="G558" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H558" s="5"/>
       <c r="I558" s="5"/>
     </row>
     <row r="559" spans="1:9">
-      <c r="A559" s="13"/>
+      <c r="A559" s="12"/>
       <c r="B559" s="5" t="s">
         <v>444</v>
       </c>
@@ -12474,12 +13463,14 @@
       </c>
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
-      <c r="G559" s="6"/>
+      <c r="G559" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H559" s="5"/>
       <c r="I559" s="5"/>
     </row>
     <row r="560" spans="1:9">
-      <c r="A560" s="13"/>
+      <c r="A560" s="12"/>
       <c r="B560" s="5" t="s">
         <v>81</v>
       </c>
@@ -12493,12 +13484,14 @@
         <v>4</v>
       </c>
       <c r="F560" s="5"/>
-      <c r="G560" s="6"/>
+      <c r="G560" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H560" s="5"/>
       <c r="I560" s="5"/>
     </row>
     <row r="561" spans="1:9">
-      <c r="A561" s="13"/>
+      <c r="A561" s="12"/>
       <c r="B561" s="5" t="s">
         <v>445</v>
       </c>
@@ -12512,12 +13505,14 @@
         <v>1500</v>
       </c>
       <c r="F561" s="5"/>
-      <c r="G561" s="6"/>
+      <c r="G561" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H561" s="5"/>
       <c r="I561" s="5"/>
     </row>
     <row r="562" spans="1:9">
-      <c r="A562" s="13"/>
+      <c r="A562" s="12"/>
       <c r="B562" s="5" t="s">
         <v>446</v>
       </c>
@@ -12531,12 +13526,14 @@
         <v>1000</v>
       </c>
       <c r="F562" s="5"/>
-      <c r="G562" s="6"/>
+      <c r="G562" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H562" s="5"/>
       <c r="I562" s="5"/>
     </row>
     <row r="563" spans="1:9">
-      <c r="A563" s="13"/>
+      <c r="A563" s="12"/>
       <c r="B563" s="5" t="s">
         <v>447</v>
       </c>
@@ -12550,12 +13547,14 @@
         <v>200</v>
       </c>
       <c r="F563" s="5"/>
-      <c r="G563" s="6"/>
+      <c r="G563" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H563" s="5"/>
       <c r="I563" s="5"/>
     </row>
     <row r="564" spans="1:9">
-      <c r="A564" s="13"/>
+      <c r="A564" s="12"/>
       <c r="B564" s="5" t="s">
         <v>448</v>
       </c>
@@ -12569,12 +13568,14 @@
         <v>10</v>
       </c>
       <c r="F564" s="5"/>
-      <c r="G564" s="6"/>
+      <c r="G564" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H564" s="5"/>
       <c r="I564" s="5"/>
     </row>
     <row r="565" spans="1:9">
-      <c r="A565" s="13"/>
+      <c r="A565" s="12"/>
       <c r="B565" s="5" t="s">
         <v>261</v>
       </c>
@@ -12588,12 +13589,14 @@
         <v>1</v>
       </c>
       <c r="F565" s="5"/>
-      <c r="G565" s="6"/>
+      <c r="G565" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H565" s="5"/>
       <c r="I565" s="5"/>
     </row>
     <row r="566" spans="1:9">
-      <c r="A566" s="13"/>
+      <c r="A566" s="12"/>
       <c r="B566" s="5" t="s">
         <v>449</v>
       </c>
@@ -12607,12 +13610,14 @@
       <c r="F566" s="5">
         <v>10</v>
       </c>
-      <c r="G566" s="6"/>
+      <c r="G566" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H566" s="5"/>
       <c r="I566" s="5"/>
     </row>
     <row r="567" spans="1:9">
-      <c r="A567" s="13"/>
+      <c r="A567" s="12"/>
       <c r="B567" s="5" t="s">
         <v>450</v>
       </c>
@@ -12626,12 +13631,14 @@
       <c r="F567" s="5">
         <v>10</v>
       </c>
-      <c r="G567" s="6"/>
+      <c r="G567" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H567" s="5"/>
       <c r="I567" s="5"/>
     </row>
     <row r="568" spans="1:9">
-      <c r="A568" s="13"/>
+      <c r="A568" s="12"/>
       <c r="B568" s="5" t="s">
         <v>451</v>
       </c>
@@ -12645,12 +13652,14 @@
       <c r="F568" s="5">
         <v>5</v>
       </c>
-      <c r="G568" s="6"/>
+      <c r="G568" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H568" s="5"/>
       <c r="I568" s="5"/>
     </row>
     <row r="569" spans="1:9">
-      <c r="A569" s="13"/>
+      <c r="A569" s="12"/>
       <c r="B569" s="5" t="s">
         <v>452</v>
       </c>
@@ -12664,12 +13673,14 @@
       <c r="F569" s="5">
         <v>10</v>
       </c>
-      <c r="G569" s="6"/>
+      <c r="G569" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H569" s="5"/>
       <c r="I569" s="5"/>
     </row>
     <row r="570" spans="1:9">
-      <c r="A570" s="13"/>
+      <c r="A570" s="12"/>
       <c r="B570" s="5" t="s">
         <v>453</v>
       </c>
@@ -12683,12 +13694,14 @@
       <c r="F570" s="5">
         <v>10</v>
       </c>
-      <c r="G570" s="6"/>
+      <c r="G570" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H570" s="5"/>
       <c r="I570" s="5"/>
     </row>
     <row r="571" spans="1:9">
-      <c r="A571" s="13"/>
+      <c r="A571" s="12"/>
       <c r="B571" s="5" t="s">
         <v>454</v>
       </c>
@@ -12702,12 +13715,14 @@
         <v>1</v>
       </c>
       <c r="F571" s="5"/>
-      <c r="G571" s="6"/>
+      <c r="G571" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H571" s="5"/>
       <c r="I571" s="5"/>
     </row>
     <row r="572" spans="1:9">
-      <c r="A572" s="13"/>
+      <c r="A572" s="12"/>
       <c r="B572" s="5" t="s">
         <v>455</v>
       </c>
@@ -12721,12 +13736,14 @@
         <v>6</v>
       </c>
       <c r="F572" s="5"/>
-      <c r="G572" s="6"/>
+      <c r="G572" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H572" s="5"/>
       <c r="I572" s="5"/>
     </row>
     <row r="573" spans="1:9">
-      <c r="A573" s="13"/>
+      <c r="A573" s="12"/>
       <c r="B573" s="5" t="s">
         <v>456</v>
       </c>
@@ -12740,12 +13757,14 @@
         <v>6</v>
       </c>
       <c r="F573" s="5"/>
-      <c r="G573" s="6"/>
+      <c r="G573" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H573" s="5"/>
       <c r="I573" s="5"/>
     </row>
     <row r="574" spans="1:9">
-      <c r="A574" s="13"/>
+      <c r="A574" s="12"/>
       <c r="B574" s="5" t="s">
         <v>457</v>
       </c>
@@ -12759,12 +13778,14 @@
         <v>4</v>
       </c>
       <c r="F574" s="5"/>
-      <c r="G574" s="6"/>
+      <c r="G574" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H574" s="5"/>
       <c r="I574" s="5"/>
     </row>
     <row r="575" spans="1:9">
-      <c r="A575" s="13"/>
+      <c r="A575" s="12"/>
       <c r="B575" s="5" t="s">
         <v>458</v>
       </c>
@@ -12778,12 +13799,14 @@
         <v>500</v>
       </c>
       <c r="F575" s="5"/>
-      <c r="G575" s="6"/>
+      <c r="G575" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H575" s="5"/>
       <c r="I575" s="5"/>
     </row>
     <row r="576" spans="1:9">
-      <c r="A576" s="13"/>
+      <c r="A576" s="12"/>
       <c r="B576" s="5" t="s">
         <v>459</v>
       </c>
@@ -12797,7 +13820,9 @@
         <v>1</v>
       </c>
       <c r="F576" s="5"/>
-      <c r="G576" s="6"/>
+      <c r="G576" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H576" s="5"/>
       <c r="I576" s="5"/>
     </row>
